--- a/data/Simulated_Data.xlsx
+++ b/data/Simulated_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\Local_Projects\utdproj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A16BF2C-C21D-4DB6-8E72-3911FC63DD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0CF08-072D-4D97-910B-77CC3C4948D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="12515" windowHeight="15823" xr2:uid="{E219DCA7-C869-4452-9DEA-1FD751F2FD54}"/>
+    <workbookView xWindow="1509" yWindow="1509" windowWidth="18514" windowHeight="11511" xr2:uid="{E219DCA7-C869-4452-9DEA-1FD751F2FD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Variable</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>AccelZ</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>TimeInterval</t>
   </si>
 </sst>
 </file>
@@ -443,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441E555F-A7E4-4E9E-8C01-CB2110ACA67F}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -510,13 +504,15 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>-2</v>
+        <f>B4-100</f>
+        <v>-100</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <f>B4+100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -527,13 +523,15 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>-2</v>
+        <f t="shared" ref="D5:D6" si="0">B5-100</f>
+        <v>-100</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <f t="shared" ref="E5:E6" si="1">B5+100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -541,30 +539,21 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>156</v>
       </c>
       <c r="E6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -582,679 +571,3413 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <f>B8</f>
-        <v>0.5</v>
-      </c>
       <c r="B11">
-        <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2)</f>
-        <v>77.894957144712478</v>
+        <f ca="1">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
+        <v>83</v>
       </c>
       <c r="C11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>33.292611642994835</v>
+        <v>29.150272387789911</v>
       </c>
       <c r="D11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>6.3785575639573669E-2</v>
+        <v>-18.047213873257228</v>
       </c>
       <c r="E11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>-0.12764728403186251</v>
+        <v>-18.889052798939584</v>
       </c>
       <c r="F11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>-7.1978499096901766E-2</v>
+        <v>278.33054497996045</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <f>$B$8+A11</f>
-        <v>1</v>
-      </c>
       <c r="B12">
-        <f t="shared" ref="B12:B36" ca="1" si="0">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2)</f>
-        <v>79.446307275964685</v>
+        <f t="shared" ref="B12:B75" ca="1" si="2">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
+        <v>67</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C36" ca="1" si="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>32.262841437840557</v>
+        <f t="shared" ref="C12:C75" ca="1" si="3">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
+        <v>30.314511596409702</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D36" ca="1" si="2">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>-0.11936998741549421</v>
+        <f t="shared" ref="D12:D75" ca="1" si="4">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
+        <v>-4.7932327175395679</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E36" ca="1" si="3">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>4.282323932287873E-2</v>
+        <f t="shared" ref="E12:E75" ca="1" si="5">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
+        <v>-0.65148876157623747</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F36" ca="1" si="4">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>7.2559262296178206E-2</v>
+        <f t="shared" ref="F12:F75" ca="1" si="6">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
+        <v>252.2266900614288</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <f t="shared" ref="A13:A36" si="5">$B$8+A12</f>
-        <v>1.5</v>
-      </c>
       <c r="B13">
-        <f t="shared" ca="1" si="0"/>
-        <v>74.881523389056625</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.001723535062158</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23.756416615651826</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.18584884358989798</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>11.505352345194622</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.1272079161977942</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-10.237447739358966</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.9894856163320709E-3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>250.74709906155138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
       <c r="B14">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.676978395619074</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.080645727752934</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>34.264090911577583</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="2"/>
-        <v>-6.3124616412605195E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.33978365345295725</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15730561883226513</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>12.619856882926602</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.1882983695410272E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>274.03305771446225</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <f t="shared" si="5"/>
-        <v>2.5</v>
-      </c>
       <c r="B15">
-        <f t="shared" ca="1" si="0"/>
-        <v>73.586314126597614</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.502783624778356</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.9900623198898022E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8.7979383767793546</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="3"/>
-        <v>-6.6003954670217344E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.2302434428549227</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.15036734774075983</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>250.91444497780304</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
       <c r="B16">
-        <f t="shared" ca="1" si="0"/>
-        <v>78.866085808705066</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.277602636663882</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27.285885018704839</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="2"/>
-        <v>-5.0896472764453651E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.0475404822052194</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.11718805078857537</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.6088717473169662</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.2642118254498816E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <f t="shared" si="5"/>
-        <v>3.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>274.50195888481153</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17">
-        <f t="shared" ca="1" si="0"/>
-        <v>79.680635832859267</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.82416838398019</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>23.616508704812919</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.14751705372872267</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.310327324051073</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.11355573457303175</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.1801527632475395</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.5081010477889287E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>270.92714070396386</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18">
-        <f t="shared" ca="1" si="0"/>
-        <v>79.981618852664042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.058381637364249</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32.544649887268086</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.10865887276575376</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18.162183513205754</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.3052016213606686E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.7280926265081016</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.1077434688741076E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <f t="shared" si="5"/>
-        <v>4.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>255.71933851892683</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19">
-        <f t="shared" ca="1" si="0"/>
-        <v>79.112423854770185</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>21.105072124196091</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25.5102972546599</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.0187341044457845E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5091102138028885</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.11409558876297543</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7.9491188839506455</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.6972139009642263E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>266.05942620025223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20">
-        <f t="shared" ca="1" si="0"/>
-        <v>74.140337687803637</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.372917294184191</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>32.938374236809132</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.9554211754643828E-3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-10.010661293709886</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.4007881152707674E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4868023899306873</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.1307293696345127E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>254.18709231575642</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21">
-        <f t="shared" ca="1" si="0"/>
-        <v>75.195944844355495</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.963716559288233</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>29.760942655735136</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11038242056866934</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.24064354927030063</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16373466141886972</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.677368915981996</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.3682611513847392E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>236.96196998331857</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22">
-        <f t="shared" ca="1" si="0"/>
-        <v>81.517237080341502</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>24.578780057235424</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25.789533313643293</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.10547605845668245</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2154691361785792</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.14320809128385115</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.2491439149599852</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="4"/>
-        <v>7.6397917862503538E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <f t="shared" si="5"/>
-        <v>6.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>253.70053980667311</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23">
-        <f t="shared" ca="1" si="0"/>
-        <v>77.51537869130371</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.495424610920786</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>29.798622074056738</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="2"/>
-        <v>6.4515984558998082E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14.223492701225638</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.16584899741556614</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.7272634530574185</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.3171531651923816E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>256.72085421310334</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24">
-        <f t="shared" ca="1" si="0"/>
-        <v>81.556605005977289</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>26.912542573822325</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27.518204618199981</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="2"/>
-        <v>-7.4732275007378932E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.4046883511622521</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.10628209046210282</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-15.732116020450411</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="4"/>
-        <v>-8.0381030490427718E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>251.69871200085865</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25">
-        <f t="shared" ca="1" si="0"/>
-        <v>71.479706597043702</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>29.360604949972558</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.717804960827269</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="2"/>
-        <v>-8.8213377425107153E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-22.405350310521367</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.27495533236287789</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.0231845315067734</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.21780354934329887</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>275.23269889542553</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26">
-        <f t="shared" ca="1" si="0"/>
-        <v>76.408078469840518</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>28.449992438252863</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25.94283824667685</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.13442911152476097</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.555969298522494</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="3"/>
-        <v>-5.2777411938138709E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0258732124045906</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.1870197771811477E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <f t="shared" si="5"/>
-        <v>8.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>256.3584856792412</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27">
-        <f t="shared" ca="1" si="0"/>
-        <v>85.070853122456796</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>23.86716688392173</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>26.658723452281087</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.10450206115241729</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.70108931910755357</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="3"/>
-        <v>-2.0286971643389523E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8.9844052504292904</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="4"/>
-        <v>-5.1410805942537864E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>257.82080102336374</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28">
-        <f t="shared" ca="1" si="0"/>
-        <v>75.50407400539703</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>20.46322393465104</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>25.030665236679827</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.14236777729872738</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5.0660963783079271</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="3"/>
-        <v>-4.8182814224462849E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-12.316902996554509</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.7452695381792515E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <f t="shared" si="5"/>
-        <v>9.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>274.35429865023832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29">
-        <f t="shared" ca="1" si="0"/>
-        <v>75.394692102872611</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.658438180137559</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>29.325760775600809</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.12986145136118971</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15.557331568055359</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.13464734779808138</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.1101225167821518</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="4"/>
-        <v>-9.0274978373616505E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>244.06212316559521</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30">
-        <f t="shared" ca="1" si="0"/>
-        <v>70.894004914941263</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>26.416702468548841</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>27.991345503440275</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.12120974684341852</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4127452092348816</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="3"/>
-        <v>6.1492655671171931E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-7.4220548308828294</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.4818714810892214E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <f t="shared" si="5"/>
-        <v>10.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>262.38463428180495</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31">
-        <f t="shared" ca="1" si="0"/>
-        <v>76.586223318880116</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>31.617902074724718</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.11970811624794363</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-11.145790185249798</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.768973608674015E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.383716281701286</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.2604137661706268E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>251.84033253045445</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32">
-        <f t="shared" ca="1" si="0"/>
-        <v>71.605258569375607</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.391465467435033</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>19.793021070244109</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="2"/>
-        <v>-9.8020407118341257E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2.6214009759900518</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.17324866742899328</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.62266320722983748</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.4915749619089261E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <f t="shared" si="5"/>
-        <v>11.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>247.72430451799988</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33">
-        <f t="shared" ca="1" si="0"/>
-        <v>69.402819144752442</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.048875082865244</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>34.555350155950272</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.5561271268460646E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-13.557241761976513</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="3"/>
-        <v>-1.4135067540679386E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.4305758089152399E-3</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="4"/>
-        <v>2.9015548718186103E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>253.06564089605183</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34">
-        <f t="shared" ca="1" si="0"/>
-        <v>66.649091495182773</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>25.962490307314816</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>28.821843535506485</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.694411161048927E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12.548481872067006</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9045740060479087E-2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.78890798797284556</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.12841906266397524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>256.96861624281144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35">
-        <f t="shared" ca="1" si="0"/>
-        <v>77.000328175517026</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>22.234510235118176</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24.522957947509365</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.2941388537722217E-3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8861993150390504</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.5595708908004853E-3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.497408931888391</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="4"/>
-        <v>-7.7298399777931362E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
+        <f t="shared" ca="1" si="6"/>
+        <v>255.04356918091568</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36">
-        <f t="shared" ca="1" si="0"/>
-        <v>72.083748152654934</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
       </c>
       <c r="C36">
-        <f t="shared" ca="1" si="1"/>
-        <v>32.741871674525989</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>24.025846792878578</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="2"/>
-        <v>-0.16240087665701097</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.1873139463262863</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="3"/>
-        <v>-0.20834871485500944</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>-4.4337303910158585</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="4"/>
-        <v>-0.10795855973677022</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>272.75836238864844</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.927099784265881</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.955101793476661</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="5"/>
+        <v>-11.206653602423657</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="6"/>
+        <v>261.3913339396766</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.603994970535076</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.9722915560059138</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="5"/>
+        <v>-10.123314103019428</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="6"/>
+        <v>251.55192257110443</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.223934314234498</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="4"/>
+        <v>-5.4523371964390099</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.6539156015216459</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="6"/>
+        <v>246.9295876514698</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="3"/>
+        <v>27.978387169207995</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="4"/>
+        <v>-18.682262312011417</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="5"/>
+        <v>-3.9126523596943974</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="6"/>
+        <v>264.77341559409172</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <f t="shared" ca="1" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.715545837940805</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="4"/>
+        <v>-14.831483405784336</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="5"/>
+        <v>-8.716821375137231</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="6"/>
+        <v>246.08675554624449</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.661157137742169</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.506862989307479</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="5"/>
+        <v>-15.756925262196628</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="6"/>
+        <v>271.66393585188973</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.247571532695378</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.552329348966083</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.61137639648880615</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="6"/>
+        <v>253.77046026032613</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.289766087314739</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>-2.3885095852147065</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="5"/>
+        <v>-15.845109010160325</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="6"/>
+        <v>251.55541893517966</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="4"/>
+        <v>-15.007265613740941</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.407333642881095</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="6"/>
+        <v>260.64924287254291</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.785802193877014</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.12665054847333959</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="5"/>
+        <v>-12.001455998436892</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="6"/>
+        <v>266.3374106658963</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C47">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.084312415639531</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.38806567320005431</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.7714653625100556</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="6"/>
+        <v>243.240251986321</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="3"/>
+        <v>23.179619570520504</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.809639583886485</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.3619710024566682</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.25756485031951</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.93712770267096</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.4833535104064666</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.620127392162608</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.25645637410429</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.539019957055494</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.432796810746904</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="5"/>
+        <v>7.5592152511138906</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="6"/>
+        <v>250.88336635482062</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.967946594009049</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.2799381126602931</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.8205882667225675</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="6"/>
+        <v>261.44420673316029</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.213334160157917</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.0197350142487167</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.9159864322556319</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.63720645481777</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ca="1" si="3"/>
+        <v>25.227360427014268</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.4430520436355776</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="5"/>
+        <v>13.136152523045041</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ca="1" si="6"/>
+        <v>261.09577551384928</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.31995381751873</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.7579259265938534</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="5"/>
+        <v>10.358159278209127</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ca="1" si="6"/>
+        <v>252.49167563914887</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.610260322121157</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ca="1" si="4"/>
+        <v>-8.5539807866381388</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.6573302552033979</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ca="1" si="6"/>
+        <v>257.15891937072229</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C56">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.617136086811421</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ca="1" si="4"/>
+        <v>-10.028975200198801</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="5"/>
+        <v>8.315159109506725</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ca="1" si="6"/>
+        <v>262.6113439721338</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <f t="shared" ca="1" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.782965746301262</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ca="1" si="4"/>
+        <v>-0.94932810087796027</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="5"/>
+        <v>14.698220320650368</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ca="1" si="6"/>
+        <v>246.02509004695077</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C58">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.426622380626529</v>
+      </c>
+      <c r="D58">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.1472730117191823</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0033566988415137</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.86819442657583</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.53906065243271</v>
+      </c>
+      <c r="D59">
+        <f t="shared" ca="1" si="4"/>
+        <v>-4.5179608872614616E-2</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="5"/>
+        <v>10.044066125812696</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ca="1" si="6"/>
+        <v>264.9512923636114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C60">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.771793053261312</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ca="1" si="4"/>
+        <v>-15.51810719916549</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.0459814564547045</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ca="1" si="6"/>
+        <v>277.05963978719234</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <f t="shared" ca="1" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.622750332434784</v>
+      </c>
+      <c r="D61">
+        <f t="shared" ca="1" si="4"/>
+        <v>-1.9720972218294344</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="5"/>
+        <v>-9.1025005987397822E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ca="1" si="6"/>
+        <v>254.52622727871778</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.802346040924455</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.838142068144995</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.818776016690393</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ca="1" si="6"/>
+        <v>259.01111395657057</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.485335216291091</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ca="1" si="4"/>
+        <v>-11.457977021072281</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6.3179271793921021</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ca="1" si="6"/>
+        <v>256.29635710064508</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.246087897766838</v>
+      </c>
+      <c r="D64">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8099053699120575</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.7610123334283792</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="6"/>
+        <v>260.00562128254143</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.231696139296993</v>
+      </c>
+      <c r="D65">
+        <f t="shared" ca="1" si="4"/>
+        <v>12.895781863594515</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="5"/>
+        <v>10.482172902170229</v>
+      </c>
+      <c r="F65">
+        <f t="shared" ca="1" si="6"/>
+        <v>267.85701569352682</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ca="1" si="4"/>
+        <v>-7.1688398258517161</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.9155136807975468</v>
+      </c>
+      <c r="F66">
+        <f t="shared" ca="1" si="6"/>
+        <v>272.22366678027413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ca="1" si="3"/>
+        <v>21.650061779828512</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9978228977775512</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.7814307711169892</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ca="1" si="6"/>
+        <v>248.44030476975547</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.062454799848407</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ca="1" si="4"/>
+        <v>7.3366251350988438</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.5473672900282134</v>
+      </c>
+      <c r="F68">
+        <f t="shared" ca="1" si="6"/>
+        <v>265.04599766855148</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C69">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.820808830898002</v>
+      </c>
+      <c r="D69">
+        <f t="shared" ca="1" si="4"/>
+        <v>8.3039475062776589</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="5"/>
+        <v>6.6203279312177834</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="6"/>
+        <v>258.01382948357428</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.366767535079106</v>
+      </c>
+      <c r="D70">
+        <f t="shared" ca="1" si="4"/>
+        <v>-13.46984545118543</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.2157432632008631</v>
+      </c>
+      <c r="F70">
+        <f t="shared" ca="1" si="6"/>
+        <v>276.09837956007078</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ca="1" si="3"/>
+        <v>28.959340104097212</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ca="1" si="4"/>
+        <v>11.019358649992084</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.14624129477132378</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="6"/>
+        <v>235.44182472943578</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.730309096842859</v>
+      </c>
+      <c r="D72">
+        <f t="shared" ca="1" si="4"/>
+        <v>9.3106138402777052</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="5"/>
+        <v>-34.626677956947567</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ca="1" si="6"/>
+        <v>254.54569520166382</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <f t="shared" ca="1" si="3"/>
+        <v>29.521812617271497</v>
+      </c>
+      <c r="D73">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.61099391941926839</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.325408170570975</v>
+      </c>
+      <c r="F73">
+        <f t="shared" ca="1" si="6"/>
+        <v>263.29314168689791</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <f t="shared" ca="1" si="3"/>
+        <v>25.11270290236137</v>
+      </c>
+      <c r="D74">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6.7966679633206706</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="5"/>
+        <v>-5.7089660821644905</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ca="1" si="6"/>
+        <v>250.88339099119759</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ca="1" si="3"/>
+        <v>27.591344244470552</v>
+      </c>
+      <c r="D75">
+        <f t="shared" ca="1" si="4"/>
+        <v>-13.657567026285179</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="5"/>
+        <v>-13.122457338959235</v>
+      </c>
+      <c r="F75">
+        <f t="shared" ca="1" si="6"/>
+        <v>257.60445952881145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <f t="shared" ref="B76:B139" ca="1" si="7">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
+        <v>82</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:C139" ca="1" si="8">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
+        <v>26.559812146536174</v>
+      </c>
+      <c r="D76">
+        <f t="shared" ref="D76:D139" ca="1" si="9">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
+        <v>-2.75252691707832</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:E139" ca="1" si="10">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
+        <v>-7.6477821070968979</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76:F139" ca="1" si="11">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
+        <v>270.12854562786214</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.457191006087204</v>
+      </c>
+      <c r="D77">
+        <f t="shared" ca="1" si="9"/>
+        <v>-7.5164229615332516</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.7118974149200721</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="11"/>
+        <v>250.36790352564353</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.437737802046424</v>
+      </c>
+      <c r="D78">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.43008511985148107</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="10"/>
+        <v>17.278866274824225</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="11"/>
+        <v>267.90425158093041</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.2127926223861305</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.2436556334205315</v>
+      </c>
+      <c r="F79">
+        <f t="shared" ca="1" si="11"/>
+        <v>251.13234638427875</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.804542581274571</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ca="1" si="9"/>
+        <v>22.260915588261479</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.1156577233016698</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ca="1" si="11"/>
+        <v>246.18957620879061</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C81">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.96651713776906</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.268656216140422</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.4774973437884498</v>
+      </c>
+      <c r="F81">
+        <f t="shared" ca="1" si="11"/>
+        <v>243.44477187373917</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.858004211551592</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ca="1" si="9"/>
+        <v>-3.2250334057240027</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.8090260528109772</v>
+      </c>
+      <c r="F82">
+        <f t="shared" ca="1" si="11"/>
+        <v>255.3618599288846</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.838368577572481</v>
+      </c>
+      <c r="D83">
+        <f t="shared" ca="1" si="9"/>
+        <v>21.782800001688774</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.0176652798559545</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ca="1" si="11"/>
+        <v>252.26605566714491</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C84">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.992349955282567</v>
+      </c>
+      <c r="D84">
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.0167463510968615</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.8738336148651347</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="11"/>
+        <v>256.66990086875603</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C85">
+        <f t="shared" ca="1" si="8"/>
+        <v>25.686308470734062</v>
+      </c>
+      <c r="D85">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.9530615734588785</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="10"/>
+        <v>-10.468692090423488</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="11"/>
+        <v>279.14924138185523</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.75374726804646</v>
+      </c>
+      <c r="D86">
+        <f t="shared" ca="1" si="9"/>
+        <v>-17.280428371500594</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.726344219011683</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ca="1" si="11"/>
+        <v>247.01815170623519</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C87">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.7620760120085</v>
+      </c>
+      <c r="D87">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.42817467093067113</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="10"/>
+        <v>-20.047397998770787</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ca="1" si="11"/>
+        <v>254.83550198667834</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B88">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C88">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.033354049726121</v>
+      </c>
+      <c r="D88">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.6411290390250493</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="10"/>
+        <v>-11.604321948857388</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ca="1" si="11"/>
+        <v>252.60561337900162</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B89">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.121865060694113</v>
+      </c>
+      <c r="D89">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.4989856860544482</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.0647826034865782</v>
+      </c>
+      <c r="F89">
+        <f t="shared" ca="1" si="11"/>
+        <v>252.98910301124468</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B90">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C90">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <f t="shared" ca="1" si="9"/>
+        <v>-11.799484658379457</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.1431740910153074</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="11"/>
+        <v>247.30476506805812</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B91">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.835117029326174</v>
+      </c>
+      <c r="D91">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.5301566777076174</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="10"/>
+        <v>-14.338418837308264</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="11"/>
+        <v>267.93273126396588</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B92">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.268827082670882</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.83277060264970482</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="10"/>
+        <v>8.3400926273348936</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="11"/>
+        <v>258.36976990706808</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B93">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.061310172988073</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="9"/>
+        <v>-17.032953631497858</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="10"/>
+        <v>-17.683884149821001</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="11"/>
+        <v>249.61192467961871</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B94">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.713525668083481</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="9"/>
+        <v>-6.8842887952844789</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="10"/>
+        <v>5.5097600214472191</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="11"/>
+        <v>261.42041103074661</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B95">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.626428657108491</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.5532535424274867</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="10"/>
+        <v>-15.286785602119169</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="11"/>
+        <v>272.49617253024417</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B96">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.139341334552526</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="9"/>
+        <v>14.138724090055634</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="10"/>
+        <v>0.7940644503960741</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="11"/>
+        <v>260.67691294274891</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B97">
+        <f t="shared" ca="1" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="9"/>
+        <v>-10.771149236978752</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.3672604523270531</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="11"/>
+        <v>243.42132789564715</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B98">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.42588328593742</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.2095029850711709</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.2973186077721972</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="11"/>
+        <v>271.61766478822148</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B99">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="8"/>
+        <v>31.469966611091515</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.591190600013755</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.0774006682899331</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="11"/>
+        <v>258.27612243439899</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B100">
+        <f t="shared" ca="1" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.616857537966702</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="9"/>
+        <v>7.4919570655721257</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.5582935300484155</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="11"/>
+        <v>260.15729939774042</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B101">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C101">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.043266814131762</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ca="1" si="9"/>
+        <v>-28.455888347155266</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.889116768080648</v>
+      </c>
+      <c r="F101">
+        <f t="shared" ca="1" si="11"/>
+        <v>243.61335610905405</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D102">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.5358347523616143</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.1018763566240928</v>
+      </c>
+      <c r="F102">
+        <f t="shared" ca="1" si="11"/>
+        <v>248.49042773484754</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B103">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.779110990910279</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ca="1" si="9"/>
+        <v>15.10177686759774</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.9166384391279625</v>
+      </c>
+      <c r="F103">
+        <f t="shared" ca="1" si="11"/>
+        <v>251.42061915953772</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B104">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.975042650793643</v>
+      </c>
+      <c r="D104">
+        <f t="shared" ca="1" si="9"/>
+        <v>24.535976311939017</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.5537789014170578</v>
+      </c>
+      <c r="F104">
+        <f t="shared" ca="1" si="11"/>
+        <v>242.91532641724311</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B105">
+        <f t="shared" ca="1" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="C105">
+        <f t="shared" ca="1" si="8"/>
+        <v>19.339252135383525</v>
+      </c>
+      <c r="D105">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.9463694327333463</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ca="1" si="10"/>
+        <v>-4.8335743293284681</v>
+      </c>
+      <c r="F105">
+        <f t="shared" ca="1" si="11"/>
+        <v>250.18181149019776</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B106">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C106">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.413466320605746</v>
+      </c>
+      <c r="D106">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6690034379374328</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ca="1" si="10"/>
+        <v>-6.4371216305521877</v>
+      </c>
+      <c r="F106">
+        <f t="shared" ca="1" si="11"/>
+        <v>250.93346592773679</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B107">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C107">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.230642272707001</v>
+      </c>
+      <c r="D107">
+        <f t="shared" ca="1" si="9"/>
+        <v>6.0983425331590908</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ca="1" si="10"/>
+        <v>10.789763162189072</v>
+      </c>
+      <c r="F107">
+        <f t="shared" ca="1" si="11"/>
+        <v>267.0008441016862</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B108">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C108">
+        <f t="shared" ca="1" si="8"/>
+        <v>32.41777916883759</v>
+      </c>
+      <c r="D108">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.3302945831108741</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ca="1" si="10"/>
+        <v>-24.359628086915848</v>
+      </c>
+      <c r="F108">
+        <f t="shared" ca="1" si="11"/>
+        <v>257.57300727546095</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B109">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ca="1" si="8"/>
+        <v>21.998841273592951</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ca="1" si="9"/>
+        <v>3.6475620376170816</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.5520201645750125</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ca="1" si="11"/>
+        <v>253.07167440406835</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B110">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.157743538253555</v>
+      </c>
+      <c r="D110">
+        <f t="shared" ca="1" si="9"/>
+        <v>9.9260301679453171</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.6105325060968738</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ca="1" si="11"/>
+        <v>260.39406882501009</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B111">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C111">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.472248836869252</v>
+      </c>
+      <c r="D111">
+        <f t="shared" ca="1" si="9"/>
+        <v>-10.928684370423131</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ca="1" si="10"/>
+        <v>-2.2292913935053886</v>
+      </c>
+      <c r="F111">
+        <f t="shared" ca="1" si="11"/>
+        <v>254.00158483493988</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B112">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C112">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.599045779483653</v>
+      </c>
+      <c r="D112">
+        <f t="shared" ca="1" si="9"/>
+        <v>-11.318718054955362</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.0394815639509281</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ca="1" si="11"/>
+        <v>262.14206469591642</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B113">
+        <f t="shared" ca="1" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.149895568620199</v>
+      </c>
+      <c r="D113">
+        <f t="shared" ca="1" si="9"/>
+        <v>-10.57687330261675</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ca="1" si="10"/>
+        <v>1.685211783741976</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ca="1" si="11"/>
+        <v>243.40769762541504</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B114">
+        <f t="shared" ca="1" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.684188588211128</v>
+      </c>
+      <c r="D114">
+        <f t="shared" ca="1" si="9"/>
+        <v>10.544576666188888</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ca="1" si="10"/>
+        <v>14.150216125275644</v>
+      </c>
+      <c r="F114">
+        <f t="shared" ca="1" si="11"/>
+        <v>251.39302813480089</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B115">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C115">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.004789910311167</v>
+      </c>
+      <c r="D115">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.8910253326849702</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ca="1" si="10"/>
+        <v>-11.50834354608717</v>
+      </c>
+      <c r="F115">
+        <f t="shared" ca="1" si="11"/>
+        <v>265.19153907256441</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B116">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C116">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.582916642930936</v>
+      </c>
+      <c r="D116">
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.4501914098315298</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ca="1" si="10"/>
+        <v>16.972806955398742</v>
+      </c>
+      <c r="F116">
+        <f t="shared" ca="1" si="11"/>
+        <v>267.66753663705953</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B117">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C117">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.627821784605654</v>
+      </c>
+      <c r="D117">
+        <f t="shared" ca="1" si="9"/>
+        <v>-16.047251932280048</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ca="1" si="10"/>
+        <v>-9.9836831673939379</v>
+      </c>
+      <c r="F117">
+        <f t="shared" ca="1" si="11"/>
+        <v>262.83633276499813</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B118">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C118">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.242034775355741</v>
+      </c>
+      <c r="D118">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.2651397248991576</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ca="1" si="10"/>
+        <v>26.017932821471248</v>
+      </c>
+      <c r="F118">
+        <f t="shared" ca="1" si="11"/>
+        <v>256.02022826088648</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B119">
+        <f t="shared" ca="1" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="C119">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.859531561598523</v>
+      </c>
+      <c r="D119">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.4236973814348133</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.8323512219911415</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ca="1" si="11"/>
+        <v>251.3747674095579</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <f t="shared" ca="1" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="C120">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.975259263281284</v>
+      </c>
+      <c r="D120">
+        <f t="shared" ca="1" si="9"/>
+        <v>-5.7322733908291781</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.542153466681417</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ca="1" si="11"/>
+        <v>235.15635534554295</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B121">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C121">
+        <f t="shared" ca="1" si="8"/>
+        <v>33.421316584062822</v>
+      </c>
+      <c r="D121">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.43238320208891601</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ca="1" si="10"/>
+        <v>11.923982851223085</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ca="1" si="11"/>
+        <v>246.99758254700404</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B122">
+        <f t="shared" ca="1" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="C122">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.392358109100833</v>
+      </c>
+      <c r="D122">
+        <f t="shared" ca="1" si="9"/>
+        <v>-7.5167423044241897</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.4682514163994966</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ca="1" si="11"/>
+        <v>235.18088227253165</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B123">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="C123">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.406719755539175</v>
+      </c>
+      <c r="D123">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.6181576926007999</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.7439560884409895</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ca="1" si="11"/>
+        <v>251.4039488104531</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B124">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C124">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.375909163457617</v>
+      </c>
+      <c r="D124">
+        <f t="shared" ca="1" si="9"/>
+        <v>8.743302021827045</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.4711213076552032</v>
+      </c>
+      <c r="F124">
+        <f t="shared" ca="1" si="11"/>
+        <v>254.2581019459046</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B125">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C125">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.891172304426913</v>
+      </c>
+      <c r="D125">
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.17104520403194684</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.3205076626775814</v>
+      </c>
+      <c r="F125">
+        <f t="shared" ca="1" si="11"/>
+        <v>250.65223914812285</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C126">
+        <f t="shared" ca="1" si="8"/>
+        <v>20.827920502559394</v>
+      </c>
+      <c r="D126">
+        <f t="shared" ca="1" si="9"/>
+        <v>2.0533816467807422</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.9787520156456979E-2</v>
+      </c>
+      <c r="F126">
+        <f t="shared" ca="1" si="11"/>
+        <v>235.32398238201756</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <f t="shared" ca="1" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.099526031517666</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0335106990688823</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ca="1" si="10"/>
+        <v>-11.052993142514042</v>
+      </c>
+      <c r="F127">
+        <f t="shared" ca="1" si="11"/>
+        <v>258.97719666727812</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <f t="shared" ca="1" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="D128">
+        <f t="shared" ca="1" si="9"/>
+        <v>14.158028029505086</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ca="1" si="10"/>
+        <v>-7.0940078603861325</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ca="1" si="11"/>
+        <v>248.72261015070259</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C129">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.15288597679503</v>
+      </c>
+      <c r="D129">
+        <f t="shared" ca="1" si="9"/>
+        <v>-15.001696626637695</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.68592663153253541</v>
+      </c>
+      <c r="F129">
+        <f t="shared" ca="1" si="11"/>
+        <v>255.02602559089965</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <f t="shared" ca="1" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ca="1" si="8"/>
+        <v>29.868222666728826</v>
+      </c>
+      <c r="D130">
+        <f t="shared" ca="1" si="9"/>
+        <v>-9.5481439209833905</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ca="1" si="10"/>
+        <v>6.6389401834290274</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ca="1" si="11"/>
+        <v>246.83435828480583</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <f t="shared" ca="1" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ca="1" si="8"/>
+        <v>22.196628791803647</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ca="1" si="9"/>
+        <v>13.842450700409126</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ca="1" si="10"/>
+        <v>7.2942295222275959</v>
+      </c>
+      <c r="F131">
+        <f t="shared" ca="1" si="11"/>
+        <v>238.20860858843321</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ca="1" si="8"/>
+        <v>24.439627069045372</v>
+      </c>
+      <c r="D132">
+        <f t="shared" ca="1" si="9"/>
+        <v>11.528151875764889</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ca="1" si="10"/>
+        <v>-15.26166378905738</v>
+      </c>
+      <c r="F132">
+        <f t="shared" ca="1" si="11"/>
+        <v>243.19655363140208</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C133">
+        <f t="shared" ca="1" si="8"/>
+        <v>34.933356229973086</v>
+      </c>
+      <c r="D133">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7761241722481438</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ca="1" si="10"/>
+        <v>-3.9925519197305692</v>
+      </c>
+      <c r="F133">
+        <f t="shared" ca="1" si="11"/>
+        <v>249.18619857459927</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <f t="shared" ca="1" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="C134">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D134">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.562226716870097</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.459720166128049</v>
+      </c>
+      <c r="F134">
+        <f t="shared" ca="1" si="11"/>
+        <v>267.65692749807732</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <f t="shared" ca="1" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="C135">
+        <f t="shared" ca="1" si="8"/>
+        <v>26.514665320323509</v>
+      </c>
+      <c r="D135">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.8892415279383767</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ca="1" si="10"/>
+        <v>-10.408176578270128</v>
+      </c>
+      <c r="F135">
+        <f t="shared" ca="1" si="11"/>
+        <v>258.80538723486831</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C136">
+        <f t="shared" ca="1" si="8"/>
+        <v>23.181011400656622</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ca="1" si="9"/>
+        <v>-20.137052123682125</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ca="1" si="10"/>
+        <v>-1.1923211076916009</v>
+      </c>
+      <c r="F136">
+        <f t="shared" ca="1" si="11"/>
+        <v>242.96444496282606</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="C137">
+        <f t="shared" ca="1" si="8"/>
+        <v>27.299820189908129</v>
+      </c>
+      <c r="D137">
+        <f t="shared" ca="1" si="9"/>
+        <v>-13.316147349729597</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ca="1" si="10"/>
+        <v>3.666846629725582</v>
+      </c>
+      <c r="F137">
+        <f t="shared" ca="1" si="11"/>
+        <v>236.39176809684807</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <f t="shared" ca="1" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="C138">
+        <f t="shared" ca="1" si="8"/>
+        <v>30.32427127645914</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ca="1" si="9"/>
+        <v>-2.4775803775862477</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ca="1" si="10"/>
+        <v>2.8096950142100425</v>
+      </c>
+      <c r="F138">
+        <f t="shared" ca="1" si="11"/>
+        <v>257.06134366643954</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <f t="shared" ca="1" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="C139">
+        <f t="shared" ca="1" si="8"/>
+        <v>28.799664279138181</v>
+      </c>
+      <c r="D139">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.40825078925836117</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ca="1" si="10"/>
+        <v>-21.493911965726884</v>
+      </c>
+      <c r="F139">
+        <f t="shared" ca="1" si="11"/>
+        <v>263.10619519153806</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <f t="shared" ref="B140:B165" ca="1" si="12">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
+        <v>70</v>
+      </c>
+      <c r="C140">
+        <f t="shared" ref="C140:C165" ca="1" si="13">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
+        <v>19.609485964876576</v>
+      </c>
+      <c r="D140">
+        <f t="shared" ref="D140:D165" ca="1" si="14">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
+        <v>7.0097482155496413</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="E140:E165" ca="1" si="15">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
+        <v>0.48534842760630914</v>
+      </c>
+      <c r="F140">
+        <f t="shared" ref="F140:F165" ca="1" si="16">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
+        <v>247.27807980311712</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C141">
+        <f t="shared" ca="1" si="13"/>
+        <v>23.084840965819758</v>
+      </c>
+      <c r="D141">
+        <f t="shared" ca="1" si="14"/>
+        <v>16.140763487671975</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.8825744188657456</v>
+      </c>
+      <c r="F141">
+        <f t="shared" ca="1" si="16"/>
+        <v>243.40776169877384</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <f t="shared" ca="1" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ca="1" si="13"/>
+        <v>26.269182208477012</v>
+      </c>
+      <c r="D142">
+        <f t="shared" ca="1" si="14"/>
+        <v>-11.273340985662495</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ca="1" si="15"/>
+        <v>3.07568962514432</v>
+      </c>
+      <c r="F142">
+        <f t="shared" ca="1" si="16"/>
+        <v>253.34216620161681</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ca="1" si="13"/>
+        <v>23.437236670770631</v>
+      </c>
+      <c r="D143">
+        <f t="shared" ca="1" si="14"/>
+        <v>-5.4050521576419008</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ca="1" si="15"/>
+        <v>-5.9808906335193344</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ca="1" si="16"/>
+        <v>259.63909054048878</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ca="1" si="13"/>
+        <v>24.268426942215953</v>
+      </c>
+      <c r="D144">
+        <f t="shared" ca="1" si="14"/>
+        <v>12.525878775839098</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.5585381908738594</v>
+      </c>
+      <c r="F144">
+        <f t="shared" ca="1" si="16"/>
+        <v>259.20216974412938</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ca="1" si="13"/>
+        <v>26.79509772113493</v>
+      </c>
+      <c r="D145">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.1217946241642505</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ca="1" si="15"/>
+        <v>20.70631117091898</v>
+      </c>
+      <c r="F145">
+        <f t="shared" ca="1" si="16"/>
+        <v>249.97319885091233</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C146">
+        <f t="shared" ca="1" si="13"/>
+        <v>24.291438721457681</v>
+      </c>
+      <c r="D146">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.7759778434931669</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ca="1" si="15"/>
+        <v>6.0090335278475235</v>
+      </c>
+      <c r="F146">
+        <f t="shared" ca="1" si="16"/>
+        <v>252.31135069693534</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ca="1" si="13"/>
+        <v>19.976112479558971</v>
+      </c>
+      <c r="D147">
+        <f t="shared" ca="1" si="14"/>
+        <v>-31.141692915539629</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5371095762705191</v>
+      </c>
+      <c r="F147">
+        <f t="shared" ca="1" si="16"/>
+        <v>257.70582277276714</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ca="1" si="13"/>
+        <v>28.004234516034561</v>
+      </c>
+      <c r="D148">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.4807724689613288</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ca="1" si="15"/>
+        <v>8.5174391784229151</v>
+      </c>
+      <c r="F148">
+        <f t="shared" ca="1" si="16"/>
+        <v>250.39304117208823</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C149">
+        <f t="shared" ca="1" si="13"/>
+        <v>27.859447667651821</v>
+      </c>
+      <c r="D149">
+        <f t="shared" ca="1" si="14"/>
+        <v>-28.440234782173448</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ca="1" si="15"/>
+        <v>2.9284811040674095</v>
+      </c>
+      <c r="F149">
+        <f t="shared" ca="1" si="16"/>
+        <v>269.32311180941053</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ca="1" si="13"/>
+        <v>26.605585044530574</v>
+      </c>
+      <c r="D150">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.7965322073194026</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ca="1" si="15"/>
+        <v>13.165265157221457</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ca="1" si="16"/>
+        <v>247.49902609825787</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <f t="shared" ca="1" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="C151">
+        <f t="shared" ca="1" si="13"/>
+        <v>21.441541016774615</v>
+      </c>
+      <c r="D151">
+        <f t="shared" ca="1" si="14"/>
+        <v>11.541375206172804</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.4473896298070965</v>
+      </c>
+      <c r="F151">
+        <f t="shared" ca="1" si="16"/>
+        <v>274.91004332039461</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <f t="shared" ca="1" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="C152">
+        <f t="shared" ca="1" si="13"/>
+        <v>29.170744822466528</v>
+      </c>
+      <c r="D152">
+        <f t="shared" ca="1" si="14"/>
+        <v>-3.2963593213171416</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ca="1" si="15"/>
+        <v>15.65445587985316</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ca="1" si="16"/>
+        <v>248.09383359394749</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <f t="shared" ca="1" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C153">
+        <f t="shared" ca="1" si="13"/>
+        <v>23.477975169035567</v>
+      </c>
+      <c r="D153">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.8947733881634106</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.0826843658849521</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ca="1" si="16"/>
+        <v>252.79943124115059</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C154">
+        <f t="shared" ca="1" si="13"/>
+        <v>24.368712055847642</v>
+      </c>
+      <c r="D154">
+        <f t="shared" ca="1" si="14"/>
+        <v>5.7842363113726183</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ca="1" si="15"/>
+        <v>16.133421194381384</v>
+      </c>
+      <c r="F154">
+        <f t="shared" ca="1" si="16"/>
+        <v>259.90326902501829</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <f t="shared" ca="1" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ca="1" si="13"/>
+        <v>18.3589598398409</v>
+      </c>
+      <c r="D155">
+        <f t="shared" ca="1" si="14"/>
+        <v>-1.1199718149677729</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ca="1" si="15"/>
+        <v>-0.71322133724486214</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ca="1" si="16"/>
+        <v>243.93237882646878</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C156">
+        <f t="shared" ca="1" si="13"/>
+        <v>24.226371228361419</v>
+      </c>
+      <c r="D156">
+        <f t="shared" ca="1" si="14"/>
+        <v>-6.2955914910296897</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ca="1" si="15"/>
+        <v>7.8156965895979269</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ca="1" si="16"/>
+        <v>266.32757343651491</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <f t="shared" ca="1" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C157">
+        <f t="shared" ca="1" si="13"/>
+        <v>22.936825607319811</v>
+      </c>
+      <c r="D157">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.1320825721779499</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ca="1" si="15"/>
+        <v>3.709594278114861</v>
+      </c>
+      <c r="F157">
+        <f t="shared" ca="1" si="16"/>
+        <v>252.23350001551876</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <f t="shared" ca="1" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="C158">
+        <f t="shared" ca="1" si="13"/>
+        <v>21.229182914546463</v>
+      </c>
+      <c r="D158">
+        <f t="shared" ca="1" si="14"/>
+        <v>-14.757596242944974</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ca="1" si="15"/>
+        <v>-12.743560875643938</v>
+      </c>
+      <c r="F158">
+        <f t="shared" ca="1" si="16"/>
+        <v>232.3740304274969</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C159">
+        <f t="shared" ca="1" si="13"/>
+        <v>29.272098098533977</v>
+      </c>
+      <c r="D159">
+        <f t="shared" ca="1" si="14"/>
+        <v>3.6355054148094776</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ca="1" si="15"/>
+        <v>-10.123294199041325</v>
+      </c>
+      <c r="F159">
+        <f t="shared" ca="1" si="16"/>
+        <v>262.88321675360424</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C160">
+        <f t="shared" ca="1" si="13"/>
+        <v>27.484201477642774</v>
+      </c>
+      <c r="D160">
+        <f t="shared" ca="1" si="14"/>
+        <v>11.152526705249954</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.2282560234944242</v>
+      </c>
+      <c r="F160">
+        <f t="shared" ca="1" si="16"/>
+        <v>243.98863490457785</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <f t="shared" ca="1" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C161">
+        <f t="shared" ca="1" si="13"/>
+        <v>28.620708169037275</v>
+      </c>
+      <c r="D161">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.5763431195983575</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ca="1" si="15"/>
+        <v>-3.3493622283644298</v>
+      </c>
+      <c r="F161">
+        <f t="shared" ca="1" si="16"/>
+        <v>235.63849484133348</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <f t="shared" ca="1" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C162">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="D162">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.0470667369714142</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.6047358460164407</v>
+      </c>
+      <c r="F162">
+        <f t="shared" ca="1" si="16"/>
+        <v>256.38382471204289</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <f t="shared" ca="1" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C163">
+        <f t="shared" ca="1" si="13"/>
+        <v>28.382422148717083</v>
+      </c>
+      <c r="D163">
+        <f t="shared" ca="1" si="14"/>
+        <v>8.2106054950716594</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ca="1" si="15"/>
+        <v>-15.804757593099922</v>
+      </c>
+      <c r="F163">
+        <f t="shared" ca="1" si="16"/>
+        <v>265.75808017956882</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C164">
+        <f t="shared" ca="1" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="D164">
+        <f t="shared" ca="1" si="14"/>
+        <v>10.274849980742342</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ca="1" si="15"/>
+        <v>-7.4977604165792808</v>
+      </c>
+      <c r="F164">
+        <f t="shared" ca="1" si="16"/>
+        <v>260.56179286281974</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <f t="shared" ca="1" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C165">
+        <f t="shared" ca="1" si="13"/>
+        <v>27.441556089387454</v>
+      </c>
+      <c r="D165">
+        <f t="shared" ca="1" si="14"/>
+        <v>-0.7224704264699322</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ca="1" si="15"/>
+        <v>-8.1761969247975248</v>
+      </c>
+      <c r="F165">
+        <f t="shared" ca="1" si="16"/>
+        <v>262.55399929289274</v>
       </c>
     </row>
   </sheetData>

--- a/data/Simulated_Data.xlsx
+++ b/data/Simulated_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\Local_Projects\utdproj\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC0CF08-072D-4D97-910B-77CC3C4948D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C017F777-5F88-40AB-934B-A11FBA2EA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1509" yWindow="1509" windowWidth="18514" windowHeight="11511" xr2:uid="{E219DCA7-C869-4452-9DEA-1FD751F2FD54}"/>
   </bookViews>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441E555F-A7E4-4E9E-8C01-CB2110ACA67F}">
   <dimension ref="A1:F165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -507,12 +507,12 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <f>B4-100</f>
-        <v>-100</v>
+        <f>B4-50</f>
+        <v>-50</v>
       </c>
       <c r="E4">
-        <f>B4+100</f>
-        <v>100</v>
+        <f>B4+50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -520,18 +520,18 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D6" si="0">B5-100</f>
-        <v>-100</v>
+        <f t="shared" ref="D5:D6" si="0">B5-50</f>
+        <v>-34</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E6" si="1">B5+100</f>
-        <v>100</v>
+        <f t="shared" ref="E5:E6" si="1">B5+50</f>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -539,18 +539,18 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>256</v>
+        <v>-256</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>-306</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>356</v>
+        <v>-206</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -577,349 +577,349 @@
       </c>
       <c r="C11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>29.150272387789911</v>
+        <v>32.41559738471117</v>
       </c>
       <c r="D11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>-18.047213873257228</v>
+        <v>-5.8645774211608312</v>
       </c>
       <c r="E11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>-18.889052798939584</v>
+        <v>1.7685654840619058</v>
       </c>
       <c r="F11">
         <f ca="1">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>278.33054497996045</v>
+        <v>-265.76425776149364</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12">
         <f t="shared" ref="B12:B75" ca="1" si="2">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <f t="shared" ref="C12:C75" ca="1" si="3">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>30.314511596409702</v>
+        <v>29.492660196627227</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D75" ca="1" si="4">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>-4.7932327175395679</v>
+        <v>4.24155354488187</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:E75" ca="1" si="5">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>-0.65148876157623747</v>
+        <v>5.7430427327712117</v>
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F75" ca="1" si="6">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>252.2266900614288</v>
+        <v>-270.69893847678497</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>23.756416615651826</v>
+        <v>34.897745187695776</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="4"/>
-        <v>11.505352345194622</v>
+        <v>0.53277605391355398</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="5"/>
-        <v>-10.237447739358966</v>
+        <v>12.367375388201605</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="6"/>
-        <v>250.74709906155138</v>
+        <v>-246.17721945909335</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>34.264090911577583</v>
+        <v>29.957398383493071</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33978365345295725</v>
+        <v>-8.4998325471005938</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>12.619856882926602</v>
+        <v>27.512013989002757</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="6"/>
-        <v>274.03305771446225</v>
+        <v>-258.97276252536022</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>27.367372333991575</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="4"/>
-        <v>8.7979383767793546</v>
+        <v>-2.1419649541285422</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2302434428549227</v>
+        <v>17.498720003090302</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="6"/>
-        <v>250.91444497780304</v>
+        <v>-271.00522478392276</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>27.285885018704839</v>
+        <v>22.318297617397448</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.0475404822052194</v>
+        <v>20.240450550336494</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.6088717473169662</v>
+        <v>17.384554512735981</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="6"/>
-        <v>274.50195888481153</v>
+        <v>-260.06321671858609</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>23.616508704812919</v>
+        <v>27.272901168286264</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="4"/>
-        <v>14.310327324051073</v>
+        <v>-24.507871767735693</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.1801527632475395</v>
+        <v>4.5776744548955826</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="6"/>
-        <v>270.92714070396386</v>
+        <v>-250.08986258901149</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>32.544649887268086</v>
+        <v>25.222419118664284</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="4"/>
-        <v>18.162183513205754</v>
+        <v>-6.4505067346884237</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.7280926265081016</v>
+        <v>6.6407396376201575</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="6"/>
-        <v>255.71933851892683</v>
+        <v>-261.63950323390156</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>25.5102972546599</v>
+        <v>32.723498154796637</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5091102138028885</v>
+        <v>-18.398785058774042</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="5"/>
-        <v>7.9491188839506455</v>
+        <v>34.796254336009198</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="6"/>
-        <v>266.05942620025223</v>
+        <v>-256.59704844428546</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>32.938374236809132</v>
+        <v>27.04878069761455</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.010661293709886</v>
+        <v>-20.070248071048979</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.4868023899306873</v>
+        <v>25.021873397668084</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="6"/>
-        <v>254.18709231575642</v>
+        <v>-258.79222964136443</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>29.760942655735136</v>
+        <v>27.938699681013407</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24064354927030063</v>
+        <v>12.104422315279583</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="5"/>
-        <v>-11.677368915981996</v>
+        <v>17.599468758704376</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="6"/>
-        <v>236.96196998331857</v>
+        <v>-262.50516669669412</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>25.789533313643293</v>
+        <v>19.680026141849154</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2154691361785792</v>
+        <v>-18.101016317488135</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="5"/>
-        <v>4.2491439149599852</v>
+        <v>23.759607871920728</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="6"/>
-        <v>253.70053980667311</v>
+        <v>-267.29192119833755</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>29.798622074056738</v>
+        <v>32.142125176601411</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="4"/>
-        <v>14.223492701225638</v>
+        <v>-1.9404784413286758</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.7272634530574185</v>
+        <v>16.221142473895949</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="6"/>
-        <v>256.72085421310334</v>
+        <v>-259.22944632928233</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>27.518204618199981</v>
+        <v>30.985347173318527</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.4046883511622521</v>
+        <v>-14.14893100442497</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="5"/>
-        <v>-15.732116020450411</v>
+        <v>12.944675005165561</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="6"/>
-        <v>251.69871200085865</v>
+        <v>-249.64189506839719</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>28.717804960827269</v>
+        <v>25.430743262028528</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>-22.405350310521367</v>
+        <v>-14.649365402946199</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0231845315067734</v>
+        <v>10.748091768778941</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="6"/>
-        <v>275.23269889542553</v>
+        <v>-244.92310616202167</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>25.94283824667685</v>
+        <v>28.802141685393899</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.555969298522494</v>
+        <v>13.963205787254955</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0258732124045906</v>
+        <v>16.985673236367028</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="6"/>
-        <v>256.3584856792412</v>
+        <v>-247.56179129180089</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
@@ -929,239 +929,239 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>26.658723452281087</v>
+        <v>29.744118903332044</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70108931910755357</v>
+        <v>-15.216380050784608</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="5"/>
-        <v>8.9844052504292904</v>
+        <v>2.9550046884035854</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="6"/>
-        <v>257.82080102336374</v>
+        <v>-279.2732244793998</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>25.030665236679827</v>
+        <v>28.522692299841147</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0660963783079271</v>
+        <v>-6.527960581182386</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="5"/>
-        <v>-12.316902996554509</v>
+        <v>11.938608297861109</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="6"/>
-        <v>274.35429865023832</v>
+        <v>-257.30980818984727</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>29.325760775600809</v>
+        <v>32.642451218931804</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>15.557331568055359</v>
+        <v>-22.923102467241698</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.1101225167821518</v>
+        <v>9.1577504164454115</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="6"/>
-        <v>244.06212316559521</v>
+        <v>-268.33262378298821</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>27.991345503440275</v>
+        <v>31.219630661536687</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4127452092348816</v>
+        <v>1.747022004455367</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="5"/>
-        <v>-7.4220548308828294</v>
+        <v>-6.362891681850023</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="6"/>
-        <v>262.38463428180495</v>
+        <v>-270.34011751892149</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>31.400214655351053</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>-11.145790185249798</v>
+        <v>-1.0285953532477565</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.383716281701286</v>
+        <v>7.7509363686845028</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="6"/>
-        <v>251.84033253045445</v>
+        <v>-256.00451578934189</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>19.793021070244109</v>
+        <v>24.880477521428549</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>2.6214009759900518</v>
+        <v>-1.8057620217183961</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.62266320722983748</v>
+        <v>17.939780516880816</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="6"/>
-        <v>247.72430451799988</v>
+        <v>-247.93074350441975</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>34.555350155950272</v>
+        <v>23.09289931071325</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>-13.557241761976513</v>
+        <v>-21.22004789381668</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.4305758089152399E-3</v>
+        <v>35.092750674819825</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="6"/>
-        <v>253.06564089605183</v>
+        <v>-246.83688444612972</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>28.821843535506485</v>
+        <v>29.426205391346311</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>12.548481872067006</v>
+        <v>-5.0998587256256434</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.78890798797284556</v>
+        <v>16.995399397555008</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="6"/>
-        <v>256.96861624281144</v>
+        <v>-261.63133591700085</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>24.522957947509365</v>
+        <v>25.18929940494786</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>3.8861993150390504</v>
+        <v>4.5503197143707244</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>-11.497408931888391</v>
+        <v>5.7181357864770757</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="6"/>
-        <v>255.04356918091568</v>
+        <v>-260.04354951347932</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="3"/>
-        <v>24.025846792878578</v>
+        <v>26.167856819114384</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.1873139463262863</v>
+        <v>9.176687399770632</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.4337303910158585</v>
+        <v>24.396791149303546</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="6"/>
-        <v>272.75836238864844</v>
+        <v>-250.86045025503071</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="3"/>
-        <v>26.927099784265881</v>
+        <v>30.540220198425409</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>11.955101793476661</v>
+        <v>-9.4331912452832469</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>-11.206653602423657</v>
+        <v>23.808461121322985</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="6"/>
-        <v>261.3913339396766</v>
+        <v>-267.73006788608586</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
@@ -1171,19 +1171,19 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="3"/>
-        <v>20.603994970535076</v>
+        <v>20.7510801847179</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>1.9722915560059138</v>
+        <v>-3.8633109406089092E-2</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>-10.123314103019428</v>
+        <v>10.102954232354374</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="6"/>
-        <v>251.55192257110443</v>
+        <v>-245.00421389176367</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
@@ -1193,283 +1193,283 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="3"/>
-        <v>33.223934314234498</v>
+        <v>35</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.4523371964390099</v>
+        <v>4.7119450526706776</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6539156015216459</v>
+        <v>21.537645802426354</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="6"/>
-        <v>246.9295876514698</v>
+        <v>-241.11359500264717</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="3"/>
-        <v>27.978387169207995</v>
+        <v>31.32531364414745</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>-18.682262312011417</v>
+        <v>19.384525082169993</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.9126523596943974</v>
+        <v>11.599933785194061</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="6"/>
-        <v>264.77341559409172</v>
+        <v>-241.71610609248722</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="3"/>
-        <v>26.715545837940805</v>
+        <v>27.793655692403366</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>-14.831483405784336</v>
+        <v>-1.8014083016391176</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="5"/>
-        <v>-8.716821375137231</v>
+        <v>2.2408152763583793</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="6"/>
-        <v>246.08675554624449</v>
+        <v>-268.9002092405143</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="3"/>
-        <v>28.661157137742169</v>
+        <v>27.545680567453513</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>11.506862989307479</v>
+        <v>2.4122688456277706</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="5"/>
-        <v>-15.756925262196628</v>
+        <v>17.299385584416299</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="6"/>
-        <v>271.66393585188973</v>
+        <v>-254.90972880240943</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="3"/>
-        <v>26.247571532695378</v>
+        <v>27.107375240292459</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>11.552329348966083</v>
+        <v>-1.3326271939527174</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61137639648880615</v>
+        <v>19.068377850959187</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="6"/>
-        <v>253.77046026032613</v>
+        <v>-246.16453093809841</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="3"/>
-        <v>24.289766087314739</v>
+        <v>29.108447312855009</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.3885095852147065</v>
+        <v>14.68437078052853</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="5"/>
-        <v>-15.845109010160325</v>
+        <v>26.915317655887733</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="6"/>
-        <v>251.55541893517966</v>
+        <v>-239.33614304973631</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>32.488946447298339</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>-15.007265613740941</v>
+        <v>-2.5188991430830505</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="5"/>
-        <v>-13.407333642881095</v>
+        <v>17.083557232453721</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="6"/>
-        <v>260.64924287254291</v>
+        <v>-252.34984281710837</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="3"/>
-        <v>29.785802193877014</v>
+        <v>25.301380051414679</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.12665054847333959</v>
+        <v>-2.9116486855027084</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="5"/>
-        <v>-12.001455998436892</v>
+        <v>25.14241068844975</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="6"/>
-        <v>266.3374106658963</v>
+        <v>-254.38080501118066</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="3"/>
-        <v>26.084312415639531</v>
+        <v>30.040587643741834</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.38806567320005431</v>
+        <v>4.8658106296985286</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.7714653625100556</v>
+        <v>3.3088479639603285</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="6"/>
-        <v>243.240251986321</v>
+        <v>-255.26393001256281</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="3"/>
-        <v>23.179619570520504</v>
+        <v>30.419495928783277</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>11.809639583886485</v>
+        <v>-5.4083260494668295</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3619710024566682</v>
+        <v>12.745787489739914</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>256.25756485031951</v>
+        <v>-248.146059860587</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="3"/>
-        <v>29.93712770267096</v>
+        <v>30.126511352483821</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4833535104064666</v>
+        <v>10.936847885633149</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="5"/>
-        <v>1.620127392162608</v>
+        <v>12.051324626234539</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>256.25645637410429</v>
+        <v>-256.1882542548376</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="3"/>
-        <v>24.539019957055494</v>
+        <v>25.462700947932895</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>5.432796810746904</v>
+        <v>-1.3221225554762539</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="5"/>
-        <v>7.5592152511138906</v>
+        <v>9.6033016396161415</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>250.88336635482062</v>
+        <v>-250.5749219803042</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="3"/>
-        <v>26.967946594009049</v>
+        <v>31.492976866798351</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.2799381126602931</v>
+        <v>6.009408338960375</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8205882667225675</v>
+        <v>10.812292014002802</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>261.44420673316029</v>
+        <v>-255.38325505660853</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -1479,41 +1479,41 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="3"/>
-        <v>21.213334160157917</v>
+        <v>22.899802380535547</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.0197350142487167</v>
+        <v>-9.6890396751177761</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9159864322556319</v>
+        <v>16.773867699768864</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>256.63720645481777</v>
+        <v>-260.68614032508015</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="3"/>
-        <v>25.227360427014268</v>
+        <v>27.671876321569165</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>2.4430520436355776</v>
+        <v>-11.528108089238282</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="5"/>
-        <v>13.136152523045041</v>
+        <v>19.312260534207503</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>261.09577551384928</v>
+        <v>-269.93000526425101</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
@@ -1523,745 +1523,745 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="3"/>
-        <v>29.31995381751873</v>
+        <v>26.255538794552063</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7579259265938534</v>
+        <v>-6.79513307380053</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="5"/>
-        <v>10.358159278209127</v>
+        <v>6.7470418492971262</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="6"/>
-        <v>252.49167563914887</v>
+        <v>-266.86823559325228</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="3"/>
-        <v>26.610260322121157</v>
+        <v>33.797143607934061</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>-8.5539807866381388</v>
+        <v>2.2970905173268719</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.6573302552033979</v>
+        <v>6.2213625089390039</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="6"/>
-        <v>257.15891937072229</v>
+        <v>-249.90860009191832</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="3"/>
-        <v>30.617136086811421</v>
+        <v>26.83060554160085</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>-10.028975200198801</v>
+        <v>-1.319755264459531</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="5"/>
-        <v>8.315159109506725</v>
+        <v>27.265475621120991</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="6"/>
-        <v>262.6113439721338</v>
+        <v>-264.18142240277564</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="3"/>
-        <v>30.782965746301262</v>
+        <v>26.808913414537503</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>-0.94932810087796027</v>
+        <v>0.26846577680222233</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="5"/>
-        <v>14.698220320650368</v>
+        <v>-2.1416021566861545</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="6"/>
-        <v>246.02509004695077</v>
+        <v>-252.76586677815249</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="3"/>
-        <v>30.426622380626529</v>
+        <v>19.73996850234435</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>7.1472730117191823</v>
+        <v>10.916443619450696</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0033566988415137</v>
+        <v>4.5916028037940571</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="6"/>
-        <v>256.86819442657583</v>
+        <v>-272.51613920697395</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="3"/>
-        <v>21.53906065243271</v>
+        <v>27.43583792204117</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>-4.5179608872614616E-2</v>
+        <v>0.89902007950093965</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="5"/>
-        <v>10.044066125812696</v>
+        <v>23.633635764737388</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="6"/>
-        <v>264.9512923636114</v>
+        <v>-258.43116922292069</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="3"/>
-        <v>34.771793053261312</v>
+        <v>24.050787802236652</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>-15.51810719916549</v>
+        <v>-8.1787536981631259</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.0459814564547045</v>
+        <v>9.3797921393779511</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="6"/>
-        <v>277.05963978719234</v>
+        <v>-256.45332610268702</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="3"/>
-        <v>26.622750332434784</v>
+        <v>27.328391471172036</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="4"/>
-        <v>-1.9720972218294344</v>
+        <v>9.7300801781830497</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.1025005987397822E-2</v>
+        <v>52.32492566095511</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="6"/>
-        <v>254.52622727871778</v>
+        <v>-242.17191202199368</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="3"/>
-        <v>21.802346040924455</v>
+        <v>30.332589501490492</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="4"/>
-        <v>12.838142068144995</v>
+        <v>6.7066847611859153</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>-13.818776016690393</v>
+        <v>12.71134304534141</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="6"/>
-        <v>259.01111395657057</v>
+        <v>-253.08683902708231</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="3"/>
-        <v>26.485335216291091</v>
+        <v>24.336399458773954</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="4"/>
-        <v>-11.457977021072281</v>
+        <v>3.0389719950333562</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.3179271793921021</v>
+        <v>-1.6231862221093891</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="6"/>
-        <v>256.29635710064508</v>
+        <v>-258.40753958367202</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="3"/>
-        <v>26.246087897766838</v>
+        <v>29.215016107601922</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="4"/>
-        <v>2.8099053699120575</v>
+        <v>2.2330400436020388</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7610123334283792</v>
+        <v>21.44952342469691</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="6"/>
-        <v>260.00562128254143</v>
+        <v>-263.41783522635723</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="3"/>
-        <v>24.231696139296993</v>
+        <v>25.199616070402936</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="4"/>
-        <v>12.895781863594515</v>
+        <v>5.9392111414869975</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
-        <v>10.482172902170229</v>
+        <v>11.288621829137014</v>
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="6"/>
-        <v>267.85701569352682</v>
+        <v>-246.28241261435406</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>18.285600203741836</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="4"/>
-        <v>-7.1688398258517161</v>
+        <v>-5.1948883037997193</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.9155136807975468</v>
+        <v>17.040622263132242</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="6"/>
-        <v>272.22366678027413</v>
+        <v>-254.79854631074176</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="3"/>
-        <v>21.650061779828512</v>
+        <v>30.207383886578846</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9978228977775512</v>
+        <v>-0.34197835268134608</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.7814307711169892</v>
+        <v>8.5163019887644538</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="6"/>
-        <v>248.44030476975547</v>
+        <v>-267.51543600127144</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="3"/>
-        <v>28.062454799848407</v>
+        <v>23.484705335976496</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="4"/>
-        <v>7.3366251350988438</v>
+        <v>14.710675129836051</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.5473672900282134</v>
+        <v>13.369347130418404</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>265.04599766855148</v>
+        <v>-264.85003896313214</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="3"/>
-        <v>31.820808830898002</v>
+        <v>22.854449724828434</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="4"/>
-        <v>8.3039475062776589</v>
+        <v>4.9613656746373165</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6203279312177834</v>
+        <v>22.620779498299182</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>258.01382948357428</v>
+        <v>-245.92372213734581</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="3"/>
-        <v>20.366767535079106</v>
+        <v>23.791857581834087</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="4"/>
-        <v>-13.46984545118543</v>
+        <v>20.360101354539562</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.2157432632008631</v>
+        <v>19.53796250911391</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>276.09837956007078</v>
+        <v>-266.03295545470479</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="3"/>
-        <v>28.959340104097212</v>
+        <v>26.952915657362894</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="4"/>
-        <v>11.019358649992084</v>
+        <v>1.4067332358350719</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.14624129477132378</v>
+        <v>25.711175947219555</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>235.44182472943578</v>
+        <v>-277.91693798553297</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="3"/>
-        <v>30.730309096842859</v>
+        <v>34.767412979296097</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3106138402777052</v>
+        <v>2.8611769350023546</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>-34.626677956947567</v>
+        <v>16.563891451598813</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>254.54569520166382</v>
+        <v>-253.3968475804931</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="3"/>
-        <v>29.521812617271497</v>
+        <v>33.440471241705609</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="4"/>
-        <v>0.61099391941926839</v>
+        <v>4.2001214189879637</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>-13.325408170570975</v>
+        <v>16.409175368416243</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>263.29314168689791</v>
+        <v>-271.50802557352495</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="3"/>
-        <v>25.11270290236137</v>
+        <v>25.015959537346344</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.7966679633206706</v>
+        <v>9.7623479213677129</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.7089660821644905</v>
+        <v>8.1133122007060496</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>250.88339099119759</v>
+        <v>-247.10324668429107</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="3"/>
-        <v>27.591344244470552</v>
+        <v>35</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="4"/>
-        <v>-13.657567026285179</v>
+        <v>-9.6339405065851711</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>-13.122457338959235</v>
+        <v>23.615617336593495</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>257.60445952881145</v>
+        <v>-236.45148573064438</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76">
         <f t="shared" ref="B76:B139" ca="1" si="7">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <f t="shared" ref="C76:C139" ca="1" si="8">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>26.559812146536174</v>
+        <v>23.344374821524184</v>
       </c>
       <c r="D76">
         <f t="shared" ref="D76:D139" ca="1" si="9">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>-2.75252691707832</v>
+        <v>-20.422299350814445</v>
       </c>
       <c r="E76">
         <f t="shared" ref="E76:E139" ca="1" si="10">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>-7.6477821070968979</v>
+        <v>31.954424861297895</v>
       </c>
       <c r="F76">
         <f t="shared" ref="F76:F139" ca="1" si="11">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>270.12854562786214</v>
+        <v>-259.05402491471915</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="8"/>
-        <v>24.457191006087204</v>
+        <v>23.28899960123416</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.5164229615332516</v>
+        <v>-15.820454900434232</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.7118974149200721</v>
+        <v>42.621837708191478</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="11"/>
-        <v>250.36790352564353</v>
+        <v>-251.93258517770067</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="8"/>
-        <v>26.437737802046424</v>
+        <v>20.677188109436106</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.43008511985148107</v>
+        <v>2.5693881480640304</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="10"/>
-        <v>17.278866274824225</v>
+        <v>9.834759964798014</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="11"/>
-        <v>267.90425158093041</v>
+        <v>-259.15663101201102</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>27.843283338521765</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="9"/>
-        <v>6.2127926223861305</v>
+        <v>-13.641392134299375</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="10"/>
-        <v>3.2436556334205315</v>
+        <v>11.885889936664359</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="11"/>
-        <v>251.13234638427875</v>
+        <v>-267.46471559880939</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="8"/>
-        <v>30.804542581274571</v>
+        <v>25.451079418821998</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="9"/>
-        <v>22.260915588261479</v>
+        <v>4.5427310912079726</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="10"/>
-        <v>4.1156577233016698</v>
+        <v>-7.1823778738422845</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="11"/>
-        <v>246.18957620879061</v>
+        <v>-243.52174635996022</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="8"/>
-        <v>32.96651713776906</v>
+        <v>29.300318778043319</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.268656216140422</v>
+        <v>-7.8133598306450294</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="10"/>
-        <v>7.4774973437884498</v>
+        <v>-6.4134598888773517</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="11"/>
-        <v>243.44477187373917</v>
+        <v>-253.45325491534243</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="8"/>
-        <v>24.858004211551592</v>
+        <v>24.573497921314956</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="9"/>
-        <v>-3.2250334057240027</v>
+        <v>-6.8951104027197871</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.8090260528109772</v>
+        <v>30.098280082246998</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="11"/>
-        <v>255.3618599288846</v>
+        <v>-260.82748570419398</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="8"/>
-        <v>26.838368577572481</v>
+        <v>31.367457724248617</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="9"/>
-        <v>21.782800001688774</v>
+        <v>11.599100123467734</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0176652798559545</v>
+        <v>-4.8663710970077076</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="11"/>
-        <v>252.26605566714491</v>
+        <v>-247.30465505946489</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="8"/>
-        <v>26.992349955282567</v>
+        <v>26.156833158282559</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="9"/>
-        <v>-1.0167463510968615</v>
+        <v>-5.4481193447779539</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.8738336148651347</v>
+        <v>13.442032005408517</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="11"/>
-        <v>256.66990086875603</v>
+        <v>-259.07072165601869</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="8"/>
-        <v>25.686308470734062</v>
+        <v>24.964109664431753</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.9530615734588785</v>
+        <v>15.191009961502576</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="10"/>
-        <v>-10.468692090423488</v>
+        <v>20.674182658877982</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="11"/>
-        <v>279.14924138185523</v>
+        <v>-234.57024483710603</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="8"/>
-        <v>29.75374726804646</v>
+        <v>31.045672801705216</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="9"/>
-        <v>-17.280428371500594</v>
+        <v>-5.5798519426641437</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="10"/>
-        <v>12.726344219011683</v>
+        <v>14.716642771163121</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="11"/>
-        <v>247.01815170623519</v>
+        <v>-260.51595398637414</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="8"/>
-        <v>28.7620760120085</v>
+        <v>22.684415162218837</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42817467093067113</v>
+        <v>-2.852948305130909</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="10"/>
-        <v>-20.047397998770787</v>
+        <v>6.0163308535322244</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="11"/>
-        <v>254.83550198667834</v>
+        <v>-260.10078920545897</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
@@ -2271,481 +2271,481 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="8"/>
-        <v>26.033354049726121</v>
+        <v>27.882884793758588</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="9"/>
-        <v>9.6411290390250493</v>
+        <v>3.1091853928384805</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="10"/>
-        <v>-11.604321948857388</v>
+        <v>-6.1796038721449236</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="11"/>
-        <v>252.60561337900162</v>
+        <v>-243.06870701009331</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="8"/>
-        <v>27.121865060694113</v>
+        <v>19.991840307879322</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.4989856860544482</v>
+        <v>2.6647761527936198</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.0647826034865782</v>
+        <v>8.9217642605117184</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="11"/>
-        <v>252.98910301124468</v>
+        <v>-251.13072231928885</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>21.32597868626042</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="9"/>
-        <v>-11.799484658379457</v>
+        <v>26.173086734839146</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.1431740910153074</v>
+        <v>30.657116712181484</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="11"/>
-        <v>247.30476506805812</v>
+        <v>-242.17663293374434</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="8"/>
-        <v>24.835117029326174</v>
+        <v>32.50447075174047</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.5301566777076174</v>
+        <v>-14.180370856084252</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="10"/>
-        <v>-14.338418837308264</v>
+        <v>33.124182760684114</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="11"/>
-        <v>267.93273126396588</v>
+        <v>-249.61146176045801</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="8"/>
-        <v>28.268827082670882</v>
+        <v>33.333623538962826</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.83277060264970482</v>
+        <v>8.0462500715702383</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="10"/>
-        <v>8.3400926273348936</v>
+        <v>-2.5681269875269379</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="11"/>
-        <v>258.36976990706808</v>
+        <v>-271.82834860681646</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="8"/>
-        <v>32.061310172988073</v>
+        <v>30.981169636567689</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="9"/>
-        <v>-17.032953631497858</v>
+        <v>0.30274477848122283</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="10"/>
-        <v>-17.683884149821001</v>
+        <v>10.292642742870754</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="11"/>
-        <v>249.61192467961871</v>
+        <v>-254.94881458471812</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="8"/>
-        <v>20.713525668083481</v>
+        <v>23.947709279143567</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="9"/>
-        <v>-6.8842887952844789</v>
+        <v>2.5799884252746437</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="10"/>
-        <v>5.5097600214472191</v>
+        <v>3.1367063550581769</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="11"/>
-        <v>261.42041103074661</v>
+        <v>-254.02537281898495</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="8"/>
-        <v>30.626428657108491</v>
+        <v>26.823482178342815</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="9"/>
-        <v>2.5532535424274867</v>
+        <v>28.584606033195442</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="10"/>
-        <v>-15.286785602119169</v>
+        <v>21.205560298735744</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="11"/>
-        <v>272.49617253024417</v>
+        <v>-238.34824435790142</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="8"/>
-        <v>28.139341334552526</v>
+        <v>25.668767067490744</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="9"/>
-        <v>14.138724090055634</v>
+        <v>7.8819264535463809</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="10"/>
-        <v>0.7940644503960741</v>
+        <v>24.898504365318082</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="11"/>
-        <v>260.67691294274891</v>
+        <v>-275.41524411675164</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>28.50104625155242</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="9"/>
-        <v>-10.771149236978752</v>
+        <v>4.7049965003343726</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.3672604523270531</v>
+        <v>22.649285442592088</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="11"/>
-        <v>243.42132789564715</v>
+        <v>-248.42440464187416</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="8"/>
-        <v>29.42588328593742</v>
+        <v>24.332203071822761</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.2095029850711709</v>
+        <v>-15.204762798037038</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2973186077721972</v>
+        <v>15.856565658732691</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="11"/>
-        <v>271.61766478822148</v>
+        <v>-246.96982497183879</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="8"/>
-        <v>31.469966611091515</v>
+        <v>20.856888412491671</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="9"/>
-        <v>12.591190600013755</v>
+        <v>-20.571031255867304</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.0774006682899331</v>
+        <v>10.550609616409155</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="11"/>
-        <v>258.27612243439899</v>
+        <v>-258.96979346104183</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="8"/>
-        <v>20.616857537966702</v>
+        <v>26.590886914453733</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="9"/>
-        <v>7.4919570655721257</v>
+        <v>-14.467840251725059</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="10"/>
-        <v>1.5582935300484155</v>
+        <v>9.6855353159891955</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="11"/>
-        <v>260.15729939774042</v>
+        <v>-272.60686982011276</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="8"/>
-        <v>23.043266814131762</v>
+        <v>25.888321092386555</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="9"/>
-        <v>-28.455888347155266</v>
+        <v>1.4266560549334599</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="10"/>
-        <v>2.889116768080648</v>
+        <v>4.5522263478621099</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="11"/>
-        <v>243.61335610905405</v>
+        <v>-259.8457811935736</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>29.643985264608901</v>
       </c>
       <c r="D102">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.5358347523616143</v>
+        <v>-2.4084002250280205</v>
       </c>
       <c r="E102">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.1018763566240928</v>
+        <v>10.25183669777963</v>
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="11"/>
-        <v>248.49042773484754</v>
+        <v>-257.77392912913712</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="8"/>
-        <v>26.779110990910279</v>
+        <v>30.528369873699166</v>
       </c>
       <c r="D103">
         <f t="shared" ca="1" si="9"/>
-        <v>15.10177686759774</v>
+        <v>-9.945225774128777E-2</v>
       </c>
       <c r="E103">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.9166384391279625</v>
+        <v>23.891716740048906</v>
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="11"/>
-        <v>251.42061915953772</v>
+        <v>-238.14673195299198</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="8"/>
-        <v>26.975042650793643</v>
+        <v>20.479196437469255</v>
       </c>
       <c r="D104">
         <f t="shared" ca="1" si="9"/>
-        <v>24.535976311939017</v>
+        <v>1.4133669721078144</v>
       </c>
       <c r="E104">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.5537789014170578</v>
+        <v>-5.5415903484907822</v>
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="11"/>
-        <v>242.91532641724311</v>
+        <v>-255.56401994133049</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="8"/>
-        <v>19.339252135383525</v>
+        <v>29.437921797524147</v>
       </c>
       <c r="D105">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.9463694327333463</v>
+        <v>1.5222856038952366</v>
       </c>
       <c r="E105">
         <f t="shared" ca="1" si="10"/>
-        <v>-4.8335743293284681</v>
+        <v>11.765662576276508</v>
       </c>
       <c r="F105">
         <f t="shared" ca="1" si="11"/>
-        <v>250.18181149019776</v>
+        <v>-258.88806985065719</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="8"/>
-        <v>22.413466320605746</v>
+        <v>26.810514030437965</v>
       </c>
       <c r="D106">
         <f t="shared" ca="1" si="9"/>
-        <v>1.6690034379374328</v>
+        <v>3.6403029622244318</v>
       </c>
       <c r="E106">
         <f t="shared" ca="1" si="10"/>
-        <v>-6.4371216305521877</v>
+        <v>12.671246705679305</v>
       </c>
       <c r="F106">
         <f t="shared" ca="1" si="11"/>
-        <v>250.93346592773679</v>
+        <v>-264.7251200123963</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="8"/>
-        <v>29.230642272707001</v>
+        <v>26.674370738528893</v>
       </c>
       <c r="D107">
         <f t="shared" ca="1" si="9"/>
-        <v>6.0983425331590908</v>
+        <v>13.36030634361059</v>
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="10"/>
-        <v>10.789763162189072</v>
+        <v>0.56217206868908143</v>
       </c>
       <c r="F107">
         <f t="shared" ca="1" si="11"/>
-        <v>267.0008441016862</v>
+        <v>-276.93152152006633</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="8"/>
-        <v>32.41777916883759</v>
+        <v>26.807531081472117</v>
       </c>
       <c r="D108">
         <f t="shared" ca="1" si="9"/>
-        <v>2.3302945831108741</v>
+        <v>-18.151395501204373</v>
       </c>
       <c r="E108">
         <f t="shared" ca="1" si="10"/>
-        <v>-24.359628086915848</v>
+        <v>27.246888232142169</v>
       </c>
       <c r="F108">
         <f t="shared" ca="1" si="11"/>
-        <v>257.57300727546095</v>
+        <v>-238.02430270859685</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="8"/>
-        <v>21.998841273592951</v>
+        <v>28.423781536352998</v>
       </c>
       <c r="D109">
         <f t="shared" ca="1" si="9"/>
-        <v>3.6475620376170816</v>
+        <v>-6.4207230708926035</v>
       </c>
       <c r="E109">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.5520201645750125</v>
+        <v>13.549827236188543</v>
       </c>
       <c r="F109">
         <f t="shared" ca="1" si="11"/>
-        <v>253.07167440406835</v>
+        <v>-232.87330576511411</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.4">
@@ -2755,19 +2755,19 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="8"/>
-        <v>27.157743538253555</v>
+        <v>28.200279650181358</v>
       </c>
       <c r="D110">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9260301679453171</v>
+        <v>-9.8782274074466478</v>
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="10"/>
-        <v>2.6105325060968738</v>
+        <v>26.895574350495508</v>
       </c>
       <c r="F110">
         <f t="shared" ca="1" si="11"/>
-        <v>260.39406882501009</v>
+        <v>-254.38086705864887</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.4">
@@ -2777,129 +2777,129 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="8"/>
-        <v>26.472248836869252</v>
+        <v>21.935972723049748</v>
       </c>
       <c r="D111">
         <f t="shared" ca="1" si="9"/>
-        <v>-10.928684370423131</v>
+        <v>-2.1434749135718946E-2</v>
       </c>
       <c r="E111">
         <f t="shared" ca="1" si="10"/>
-        <v>-2.2292913935053886</v>
+        <v>23.562374895168798</v>
       </c>
       <c r="F111">
         <f t="shared" ca="1" si="11"/>
-        <v>254.00158483493988</v>
+        <v>-253.39989987917107</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="8"/>
-        <v>28.599045779483653</v>
+        <v>25.051311147606242</v>
       </c>
       <c r="D112">
         <f t="shared" ca="1" si="9"/>
-        <v>-11.318718054955362</v>
+        <v>8.7313783430362921</v>
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="10"/>
-        <v>1.0394815639509281</v>
+        <v>15.318327412986466</v>
       </c>
       <c r="F112">
         <f t="shared" ca="1" si="11"/>
-        <v>262.14206469591642</v>
+        <v>-232.75269524228855</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="8"/>
-        <v>27.149895568620199</v>
+        <v>28.345542634899569</v>
       </c>
       <c r="D113">
         <f t="shared" ca="1" si="9"/>
-        <v>-10.57687330261675</v>
+        <v>12.640335137468121</v>
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="10"/>
-        <v>1.685211783741976</v>
+        <v>26.878401636105153</v>
       </c>
       <c r="F113">
         <f t="shared" ca="1" si="11"/>
-        <v>243.40769762541504</v>
+        <v>-265.84763608501748</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="8"/>
-        <v>26.684188588211128</v>
+        <v>26.691281050211231</v>
       </c>
       <c r="D114">
         <f t="shared" ca="1" si="9"/>
-        <v>10.544576666188888</v>
+        <v>-1.859821956309601</v>
       </c>
       <c r="E114">
         <f t="shared" ca="1" si="10"/>
-        <v>14.150216125275644</v>
+        <v>1.2086707952925373</v>
       </c>
       <c r="F114">
         <f t="shared" ca="1" si="11"/>
-        <v>251.39302813480089</v>
+        <v>-252.61714906448483</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="8"/>
-        <v>26.004789910311167</v>
+        <v>22.034105121751704</v>
       </c>
       <c r="D115">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8910253326849702</v>
+        <v>5.5584676360509757</v>
       </c>
       <c r="E115">
         <f t="shared" ca="1" si="10"/>
-        <v>-11.50834354608717</v>
+        <v>18.838529376960679</v>
       </c>
       <c r="F115">
         <f t="shared" ca="1" si="11"/>
-        <v>265.19153907256441</v>
+        <v>-266.90411872237871</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="8"/>
-        <v>20.582916642930936</v>
+        <v>19.022360961764662</v>
       </c>
       <c r="D116">
         <f t="shared" ca="1" si="9"/>
-        <v>-4.4501914098315298</v>
+        <v>-6.2731105680979464</v>
       </c>
       <c r="E116">
         <f t="shared" ca="1" si="10"/>
-        <v>16.972806955398742</v>
+        <v>18.985173518018325</v>
       </c>
       <c r="F116">
         <f t="shared" ca="1" si="11"/>
-        <v>267.66753663705953</v>
+        <v>-264.31949089106132</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.4">
@@ -2909,349 +2909,349 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="8"/>
-        <v>27.627821784605654</v>
+        <v>23.962017440540631</v>
       </c>
       <c r="D117">
         <f t="shared" ca="1" si="9"/>
-        <v>-16.047251932280048</v>
+        <v>-14.650498578334258</v>
       </c>
       <c r="E117">
         <f t="shared" ca="1" si="10"/>
-        <v>-9.9836831673939379</v>
+        <v>38.257413754360385</v>
       </c>
       <c r="F117">
         <f t="shared" ca="1" si="11"/>
-        <v>262.83633276499813</v>
+        <v>-253.40563427080147</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="8"/>
-        <v>27.242034775355741</v>
+        <v>32.227784470859596</v>
       </c>
       <c r="D118">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.2651397248991576</v>
+        <v>-1.9825578455223767</v>
       </c>
       <c r="E118">
         <f t="shared" ca="1" si="10"/>
-        <v>26.017932821471248</v>
+        <v>27.333973768170885</v>
       </c>
       <c r="F118">
         <f t="shared" ca="1" si="11"/>
-        <v>256.02022826088648</v>
+        <v>-259.2541491922691</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="8"/>
-        <v>27.859531561598523</v>
+        <v>18.31513765518423</v>
       </c>
       <c r="D119">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.4236973814348133</v>
+        <v>-1.7643168067485231</v>
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.8323512219911415</v>
+        <v>22.585376913966378</v>
       </c>
       <c r="F119">
         <f t="shared" ca="1" si="11"/>
-        <v>251.3747674095579</v>
+        <v>-240.14896497522815</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="8"/>
-        <v>28.975259263281284</v>
+        <v>22.223761165759814</v>
       </c>
       <c r="D120">
         <f t="shared" ca="1" si="9"/>
-        <v>-5.7322733908291781</v>
+        <v>1.2971102260810556</v>
       </c>
       <c r="E120">
         <f t="shared" ca="1" si="10"/>
-        <v>4.542153466681417</v>
+        <v>27.589795706370346</v>
       </c>
       <c r="F120">
         <f t="shared" ca="1" si="11"/>
-        <v>235.15635534554295</v>
+        <v>-232.79641686685005</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="8"/>
-        <v>33.421316584062822</v>
+        <v>18</v>
       </c>
       <c r="D121">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43238320208891601</v>
+        <v>-1.2219220930550971</v>
       </c>
       <c r="E121">
         <f t="shared" ca="1" si="10"/>
-        <v>11.923982851223085</v>
+        <v>23.108273753808177</v>
       </c>
       <c r="F121">
         <f t="shared" ca="1" si="11"/>
-        <v>246.99758254700404</v>
+        <v>-271.52389085566455</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="8"/>
-        <v>26.392358109100833</v>
+        <v>29.690635848756354</v>
       </c>
       <c r="D122">
         <f t="shared" ca="1" si="9"/>
-        <v>-7.5167423044241897</v>
+        <v>9.3499661757691612</v>
       </c>
       <c r="E122">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.4682514163994966</v>
+        <v>21.78175343966339</v>
       </c>
       <c r="F122">
         <f t="shared" ca="1" si="11"/>
-        <v>235.18088227253165</v>
+        <v>-251.62250947291773</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="8"/>
-        <v>26.406719755539175</v>
+        <v>28.015578090768461</v>
       </c>
       <c r="D123">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.6181576926007999</v>
+        <v>-36.930729567239105</v>
       </c>
       <c r="E123">
         <f t="shared" ca="1" si="10"/>
-        <v>7.7439560884409895</v>
+        <v>18.69242581436686</v>
       </c>
       <c r="F123">
         <f t="shared" ca="1" si="11"/>
-        <v>251.4039488104531</v>
+        <v>-242.14598730926636</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="8"/>
-        <v>26.375909163457617</v>
+        <v>24.900136337395825</v>
       </c>
       <c r="D124">
         <f t="shared" ca="1" si="9"/>
-        <v>8.743302021827045</v>
+        <v>1.4933934399881164</v>
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.4711213076552032</v>
+        <v>6.9753408937165471</v>
       </c>
       <c r="F124">
         <f t="shared" ca="1" si="11"/>
-        <v>254.2581019459046</v>
+        <v>-255.53156971205186</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="8"/>
-        <v>27.891172304426913</v>
+        <v>24.818473622266243</v>
       </c>
       <c r="D125">
         <f t="shared" ca="1" si="9"/>
-        <v>-0.17104520403194684</v>
+        <v>8.545000304626587</v>
       </c>
       <c r="E125">
         <f t="shared" ca="1" si="10"/>
-        <v>7.3205076626775814</v>
+        <v>22.972803956559559</v>
       </c>
       <c r="F125">
         <f t="shared" ca="1" si="11"/>
-        <v>250.65223914812285</v>
+        <v>-270.10544203257075</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="8"/>
-        <v>20.827920502559394</v>
+        <v>29.738207066634232</v>
       </c>
       <c r="D126">
         <f t="shared" ca="1" si="9"/>
-        <v>2.0533816467807422</v>
+        <v>-14.923416857805464</v>
       </c>
       <c r="E126">
         <f t="shared" ca="1" si="10"/>
-        <v>3.9787520156456979E-2</v>
+        <v>19.440582039143965</v>
       </c>
       <c r="F126">
         <f t="shared" ca="1" si="11"/>
-        <v>235.32398238201756</v>
+        <v>-261.91574587787488</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="8"/>
-        <v>26.099526031517666</v>
+        <v>33.950723605994042</v>
       </c>
       <c r="D127">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0335106990688823</v>
+        <v>8.1565358230766378</v>
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="10"/>
-        <v>-11.052993142514042</v>
+        <v>11.207290320191163</v>
       </c>
       <c r="F127">
         <f t="shared" ca="1" si="11"/>
-        <v>258.97719666727812</v>
+        <v>-259.76957219191723</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>33.808316541459632</v>
       </c>
       <c r="D128">
         <f t="shared" ca="1" si="9"/>
-        <v>14.158028029505086</v>
+        <v>-5.9985225880035689</v>
       </c>
       <c r="E128">
         <f t="shared" ca="1" si="10"/>
-        <v>-7.0940078603861325</v>
+        <v>-14.451062831757113</v>
       </c>
       <c r="F128">
         <f t="shared" ca="1" si="11"/>
-        <v>248.72261015070259</v>
+        <v>-265.5842135223516</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="8"/>
-        <v>23.15288597679503</v>
+        <v>26.678494102456511</v>
       </c>
       <c r="D129">
         <f t="shared" ca="1" si="9"/>
-        <v>-15.001696626637695</v>
+        <v>-24.997142486576593</v>
       </c>
       <c r="E129">
         <f t="shared" ca="1" si="10"/>
-        <v>-0.68592663153253541</v>
+        <v>4.3574052020200149</v>
       </c>
       <c r="F129">
         <f t="shared" ca="1" si="11"/>
-        <v>255.02602559089965</v>
+        <v>-252.38777425687212</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="8"/>
-        <v>29.868222666728826</v>
+        <v>29.788348811418164</v>
       </c>
       <c r="D130">
         <f t="shared" ca="1" si="9"/>
-        <v>-9.5481439209833905</v>
+        <v>-7.9816909292544054</v>
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="10"/>
-        <v>6.6389401834290274</v>
+        <v>17.876500826319567</v>
       </c>
       <c r="F130">
         <f t="shared" ca="1" si="11"/>
-        <v>246.83435828480583</v>
+        <v>-276.3476172631909</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C131">
         <f t="shared" ca="1" si="8"/>
-        <v>22.196628791803647</v>
+        <v>18</v>
       </c>
       <c r="D131">
         <f t="shared" ca="1" si="9"/>
-        <v>13.842450700409126</v>
+        <v>4.5379992681037216</v>
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2942295222275959</v>
+        <v>24.557178235781663</v>
       </c>
       <c r="F131">
         <f t="shared" ca="1" si="11"/>
-        <v>238.20860858843321</v>
+        <v>-264.4769137545847</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="8"/>
-        <v>24.439627069045372</v>
+        <v>18</v>
       </c>
       <c r="D132">
         <f t="shared" ca="1" si="9"/>
-        <v>11.528151875764889</v>
+        <v>-16.010945484364957</v>
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="10"/>
-        <v>-15.26166378905738</v>
+        <v>19.508671090953815</v>
       </c>
       <c r="F132">
         <f t="shared" ca="1" si="11"/>
-        <v>243.19655363140208</v>
+        <v>-242.05421641488707</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.4">
@@ -3261,261 +3261,261 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="8"/>
-        <v>34.933356229973086</v>
+        <v>28.579154250187013</v>
       </c>
       <c r="D133">
         <f t="shared" ca="1" si="9"/>
-        <v>1.7761241722481438</v>
+        <v>-3.0587454531004612</v>
       </c>
       <c r="E133">
         <f t="shared" ca="1" si="10"/>
-        <v>-3.9925519197305692</v>
+        <v>22.127622195736905</v>
       </c>
       <c r="F133">
         <f t="shared" ca="1" si="11"/>
-        <v>249.18619857459927</v>
+        <v>-260.61147604983034</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B134">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>32.085884182470558</v>
       </c>
       <c r="D134">
         <f t="shared" ca="1" si="9"/>
-        <v>12.562226716870097</v>
+        <v>-4.4481549267855565</v>
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="10"/>
-        <v>-5.459720166128049</v>
+        <v>-2.4697366787541526</v>
       </c>
       <c r="F134">
         <f t="shared" ca="1" si="11"/>
-        <v>267.65692749807732</v>
+        <v>-258.12691906334533</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B135">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="8"/>
-        <v>26.514665320323509</v>
+        <v>23.856097133092121</v>
       </c>
       <c r="D135">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8892415279383767</v>
+        <v>2.1774837377814698</v>
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="10"/>
-        <v>-10.408176578270128</v>
+        <v>20.247245104374507</v>
       </c>
       <c r="F135">
         <f t="shared" ca="1" si="11"/>
-        <v>258.80538723486831</v>
+        <v>-251.30436783122065</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B136">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="8"/>
-        <v>23.181011400656622</v>
+        <v>21.189205997580139</v>
       </c>
       <c r="D136">
         <f t="shared" ca="1" si="9"/>
-        <v>-20.137052123682125</v>
+        <v>14.8299682565799</v>
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="10"/>
-        <v>-1.1923211076916009</v>
+        <v>18.950095758381408</v>
       </c>
       <c r="F136">
         <f t="shared" ca="1" si="11"/>
-        <v>242.96444496282606</v>
+        <v>-264.43309791209413</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B137">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="8"/>
-        <v>27.299820189908129</v>
+        <v>20.689020905569606</v>
       </c>
       <c r="D137">
         <f t="shared" ca="1" si="9"/>
-        <v>-13.316147349729597</v>
+        <v>7.3889583825769369</v>
       </c>
       <c r="E137">
         <f t="shared" ca="1" si="10"/>
-        <v>3.666846629725582</v>
+        <v>21.998413834748504</v>
       </c>
       <c r="F137">
         <f t="shared" ca="1" si="11"/>
-        <v>236.39176809684807</v>
+        <v>-252.09257966281913</v>
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B138">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="8"/>
-        <v>30.32427127645914</v>
+        <v>20.034961311819362</v>
       </c>
       <c r="D138">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.4775803775862477</v>
+        <v>13.901539349059407</v>
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="10"/>
-        <v>2.8096950142100425</v>
+        <v>19.464234633084232</v>
       </c>
       <c r="F138">
         <f t="shared" ca="1" si="11"/>
-        <v>257.06134366643954</v>
+        <v>-273.47721658378276</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B139">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="8"/>
-        <v>28.799664279138181</v>
+        <v>26.780540286827435</v>
       </c>
       <c r="D139">
         <f t="shared" ca="1" si="9"/>
-        <v>0.40825078925836117</v>
+        <v>5.7809667227693931</v>
       </c>
       <c r="E139">
         <f t="shared" ca="1" si="10"/>
-        <v>-21.493911965726884</v>
+        <v>33.396934886848683</v>
       </c>
       <c r="F139">
         <f t="shared" ca="1" si="11"/>
-        <v>263.10619519153806</v>
+        <v>-247.12486768886262</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B140">
         <f t="shared" ref="B140:B165" ca="1" si="12">INT(MAX(MIN(_xlfn.NORM.INV(RAND(), $B$2, $C$2), $E$2), $D$2))</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C140">
         <f t="shared" ref="C140:C165" ca="1" si="13">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$3, $C$3), $E$3), $D$3)</f>
-        <v>19.609485964876576</v>
+        <v>20.642998113501132</v>
       </c>
       <c r="D140">
         <f t="shared" ref="D140:D165" ca="1" si="14">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$4, $C$4), $E$4), $D$4)</f>
-        <v>7.0097482155496413</v>
+        <v>8.2967285354730151</v>
       </c>
       <c r="E140">
         <f t="shared" ref="E140:E165" ca="1" si="15">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$5, $C$5), $E$5), $D$5)</f>
-        <v>0.48534842760630914</v>
+        <v>25.754200141627191</v>
       </c>
       <c r="F140">
         <f t="shared" ref="F140:F165" ca="1" si="16">MAX(MIN(_xlfn.NORM.INV(RAND(), $B$6, $C$6), $E$6), $D$6)</f>
-        <v>247.27807980311712</v>
+        <v>-269.46445782898456</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B141">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="13"/>
-        <v>23.084840965819758</v>
+        <v>25.771433799357613</v>
       </c>
       <c r="D141">
         <f t="shared" ca="1" si="14"/>
-        <v>16.140763487671975</v>
+        <v>3.2534230120197929</v>
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="15"/>
-        <v>9.8825744188657456</v>
+        <v>2.6410690258923584</v>
       </c>
       <c r="F141">
         <f t="shared" ca="1" si="16"/>
-        <v>243.40776169877384</v>
+        <v>-249.46956636502006</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B142">
         <f t="shared" ca="1" si="12"/>
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="13"/>
-        <v>26.269182208477012</v>
+        <v>30.687975450322526</v>
       </c>
       <c r="D142">
         <f t="shared" ca="1" si="14"/>
-        <v>-11.273340985662495</v>
+        <v>-2.0040119500586977</v>
       </c>
       <c r="E142">
         <f t="shared" ca="1" si="15"/>
-        <v>3.07568962514432</v>
+        <v>6.0527156866977325</v>
       </c>
       <c r="F142">
         <f t="shared" ca="1" si="16"/>
-        <v>253.34216620161681</v>
+        <v>-256.50381667026892</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B143">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="13"/>
-        <v>23.437236670770631</v>
+        <v>25.221065097767163</v>
       </c>
       <c r="D143">
         <f t="shared" ca="1" si="14"/>
-        <v>-5.4050521576419008</v>
+        <v>23.558621244825456</v>
       </c>
       <c r="E143">
         <f t="shared" ca="1" si="15"/>
-        <v>-5.9808906335193344</v>
+        <v>13.637041470230464</v>
       </c>
       <c r="F143">
         <f t="shared" ca="1" si="16"/>
-        <v>259.63909054048878</v>
+        <v>-258.99496233724807</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B144">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="13"/>
-        <v>24.268426942215953</v>
+        <v>27.713017825313461</v>
       </c>
       <c r="D144">
         <f t="shared" ca="1" si="14"/>
-        <v>12.525878775839098</v>
+        <v>-4.0330199711639994</v>
       </c>
       <c r="E144">
         <f t="shared" ca="1" si="15"/>
-        <v>9.5585381908738594</v>
+        <v>23.722228721283827</v>
       </c>
       <c r="F144">
         <f t="shared" ca="1" si="16"/>
-        <v>259.20216974412938</v>
+        <v>-253.59769486526451</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.4">
@@ -3525,195 +3525,195 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="13"/>
-        <v>26.79509772113493</v>
+        <v>20.049283097563563</v>
       </c>
       <c r="D145">
         <f t="shared" ca="1" si="14"/>
-        <v>8.1217946241642505</v>
+        <v>17.058685283804707</v>
       </c>
       <c r="E145">
         <f t="shared" ca="1" si="15"/>
-        <v>20.70631117091898</v>
+        <v>17.055969269942207</v>
       </c>
       <c r="F145">
         <f t="shared" ca="1" si="16"/>
-        <v>249.97319885091233</v>
+        <v>-264.08214190463713</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B146">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="13"/>
-        <v>24.291438721457681</v>
+        <v>26.297151584460067</v>
       </c>
       <c r="D146">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.7759778434931669</v>
+        <v>0.90868812443800728</v>
       </c>
       <c r="E146">
         <f t="shared" ca="1" si="15"/>
-        <v>6.0090335278475235</v>
+        <v>19.094053507500352</v>
       </c>
       <c r="F146">
         <f t="shared" ca="1" si="16"/>
-        <v>252.31135069693534</v>
+        <v>-255.17731728386983</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B147">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="13"/>
-        <v>19.976112479558971</v>
+        <v>23.072472024930526</v>
       </c>
       <c r="D147">
         <f t="shared" ca="1" si="14"/>
-        <v>-31.141692915539629</v>
+        <v>-5.000141260429932</v>
       </c>
       <c r="E147">
         <f t="shared" ca="1" si="15"/>
-        <v>1.5371095762705191</v>
+        <v>20.545339706881343</v>
       </c>
       <c r="F147">
         <f t="shared" ca="1" si="16"/>
-        <v>257.70582277276714</v>
+        <v>-240.07176599465276</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B148">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="13"/>
-        <v>28.004234516034561</v>
+        <v>27.844200025322547</v>
       </c>
       <c r="D148">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.4807724689613288</v>
+        <v>14.12451579726957</v>
       </c>
       <c r="E148">
         <f t="shared" ca="1" si="15"/>
-        <v>8.5174391784229151</v>
+        <v>15.121841791693132</v>
       </c>
       <c r="F148">
         <f t="shared" ca="1" si="16"/>
-        <v>250.39304117208823</v>
+        <v>-269.00955742852796</v>
       </c>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B149">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="13"/>
-        <v>27.859447667651821</v>
+        <v>24.110409624386691</v>
       </c>
       <c r="D149">
         <f t="shared" ca="1" si="14"/>
-        <v>-28.440234782173448</v>
+        <v>-24.732054394070847</v>
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="15"/>
-        <v>2.9284811040674095</v>
+        <v>16.450267656319678</v>
       </c>
       <c r="F149">
         <f t="shared" ca="1" si="16"/>
-        <v>269.32311180941053</v>
+        <v>-251.70335010213753</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B150">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="13"/>
-        <v>26.605585044530574</v>
+        <v>22.259021985026713</v>
       </c>
       <c r="D150">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.7965322073194026</v>
+        <v>-13.830900042199445</v>
       </c>
       <c r="E150">
         <f t="shared" ca="1" si="15"/>
-        <v>13.165265157221457</v>
+        <v>10.790211824531148</v>
       </c>
       <c r="F150">
         <f t="shared" ca="1" si="16"/>
-        <v>247.49902609825787</v>
+        <v>-255.11254888652832</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B151">
         <f t="shared" ca="1" si="12"/>
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="13"/>
-        <v>21.441541016774615</v>
+        <v>22.292807003316334</v>
       </c>
       <c r="D151">
         <f t="shared" ca="1" si="14"/>
-        <v>11.541375206172804</v>
+        <v>5.27163231104144</v>
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="15"/>
-        <v>4.4473896298070965</v>
+        <v>3.0230792798200152</v>
       </c>
       <c r="F151">
         <f t="shared" ca="1" si="16"/>
-        <v>274.91004332039461</v>
+        <v>-254.2028081978618</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B152">
         <f t="shared" ca="1" si="12"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="13"/>
-        <v>29.170744822466528</v>
+        <v>35</v>
       </c>
       <c r="D152">
         <f t="shared" ca="1" si="14"/>
-        <v>-3.2963593213171416</v>
+        <v>-3.6589689246648489</v>
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="15"/>
-        <v>15.65445587985316</v>
+        <v>2.6816654016713439</v>
       </c>
       <c r="F152">
         <f t="shared" ca="1" si="16"/>
-        <v>248.09383359394749</v>
+        <v>-255.11463501456984</v>
       </c>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B153">
         <f t="shared" ca="1" si="12"/>
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="13"/>
-        <v>23.477975169035567</v>
+        <v>28.353253894172418</v>
       </c>
       <c r="D153">
         <f t="shared" ca="1" si="14"/>
-        <v>3.8947733881634106</v>
+        <v>19.587912228848221</v>
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="15"/>
-        <v>4.0826843658849521</v>
+        <v>17.552007208090977</v>
       </c>
       <c r="F153">
         <f t="shared" ca="1" si="16"/>
-        <v>252.79943124115059</v>
+        <v>-254.08422697841604</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.4">
@@ -3723,173 +3723,173 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="13"/>
-        <v>24.368712055847642</v>
+        <v>26.426786612632487</v>
       </c>
       <c r="D154">
         <f t="shared" ca="1" si="14"/>
-        <v>5.7842363113726183</v>
+        <v>-12.325437787128354</v>
       </c>
       <c r="E154">
         <f t="shared" ca="1" si="15"/>
-        <v>16.133421194381384</v>
+        <v>20.002952689583999</v>
       </c>
       <c r="F154">
         <f t="shared" ca="1" si="16"/>
-        <v>259.90326902501829</v>
+        <v>-235.00761349771031</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B155">
         <f t="shared" ca="1" si="12"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="13"/>
-        <v>18.3589598398409</v>
+        <v>30.607371247793463</v>
       </c>
       <c r="D155">
         <f t="shared" ca="1" si="14"/>
-        <v>-1.1199718149677729</v>
+        <v>-3.5343696066468828</v>
       </c>
       <c r="E155">
         <f t="shared" ca="1" si="15"/>
-        <v>-0.71322133724486214</v>
+        <v>7.4149963408257467</v>
       </c>
       <c r="F155">
         <f t="shared" ca="1" si="16"/>
-        <v>243.93237882646878</v>
+        <v>-249.66144511757005</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B156">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="13"/>
-        <v>24.226371228361419</v>
+        <v>22.785208198868617</v>
       </c>
       <c r="D156">
         <f t="shared" ca="1" si="14"/>
-        <v>-6.2955914910296897</v>
+        <v>-6.6018122107883714</v>
       </c>
       <c r="E156">
         <f t="shared" ca="1" si="15"/>
-        <v>7.8156965895979269</v>
+        <v>23.942904726467628</v>
       </c>
       <c r="F156">
         <f t="shared" ca="1" si="16"/>
-        <v>266.32757343651491</v>
+        <v>-266.55003313658136</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B157">
         <f t="shared" ca="1" si="12"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="13"/>
-        <v>22.936825607319811</v>
+        <v>23.201462464652845</v>
       </c>
       <c r="D157">
         <f t="shared" ca="1" si="14"/>
-        <v>1.1320825721779499</v>
+        <v>8.6740015120200731</v>
       </c>
       <c r="E157">
         <f t="shared" ca="1" si="15"/>
-        <v>3.709594278114861</v>
+        <v>30.259075840417239</v>
       </c>
       <c r="F157">
         <f t="shared" ca="1" si="16"/>
-        <v>252.23350001551876</v>
+        <v>-272.78622359840108</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B158">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="13"/>
-        <v>21.229182914546463</v>
+        <v>22.089021381272424</v>
       </c>
       <c r="D158">
         <f t="shared" ca="1" si="14"/>
-        <v>-14.757596242944974</v>
+        <v>10.490428008945482</v>
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="15"/>
-        <v>-12.743560875643938</v>
+        <v>18.030893540305442</v>
       </c>
       <c r="F158">
         <f t="shared" ca="1" si="16"/>
-        <v>232.3740304274969</v>
+        <v>-246.45899915990162</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B159">
         <f t="shared" ca="1" si="12"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="13"/>
-        <v>29.272098098533977</v>
+        <v>25.875087292501931</v>
       </c>
       <c r="D159">
         <f t="shared" ca="1" si="14"/>
-        <v>3.6355054148094776</v>
+        <v>-3.9647281568768342</v>
       </c>
       <c r="E159">
         <f t="shared" ca="1" si="15"/>
-        <v>-10.123294199041325</v>
+        <v>2.9151002797729628</v>
       </c>
       <c r="F159">
         <f t="shared" ca="1" si="16"/>
-        <v>262.88321675360424</v>
+        <v>-265.26895259765729</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B160">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="13"/>
-        <v>27.484201477642774</v>
+        <v>27.956372368592962</v>
       </c>
       <c r="D160">
         <f t="shared" ca="1" si="14"/>
-        <v>11.152526705249954</v>
+        <v>-0.66990985522246971</v>
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="15"/>
-        <v>5.2282560234944242</v>
+        <v>19.745822303285919</v>
       </c>
       <c r="F160">
         <f t="shared" ca="1" si="16"/>
-        <v>243.98863490457785</v>
+        <v>-265.04890384920128</v>
       </c>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B161">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="13"/>
-        <v>28.620708169037275</v>
+        <v>34.660308796633103</v>
       </c>
       <c r="D161">
         <f t="shared" ca="1" si="14"/>
-        <v>8.5763431195983575</v>
+        <v>-9.2498670958116911</v>
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="15"/>
-        <v>-3.3493622283644298</v>
+        <v>21.108866778506645</v>
       </c>
       <c r="F161">
         <f t="shared" ca="1" si="16"/>
-        <v>235.63849484133348</v>
+        <v>-280.51716498609062</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.4">
@@ -3899,41 +3899,41 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>30.971923164028489</v>
       </c>
       <c r="D162">
         <f t="shared" ca="1" si="14"/>
-        <v>1.0470667369714142</v>
+        <v>-3.6570365538780947</v>
       </c>
       <c r="E162">
         <f t="shared" ca="1" si="15"/>
-        <v>5.6047358460164407</v>
+        <v>22.158465031966905</v>
       </c>
       <c r="F162">
         <f t="shared" ca="1" si="16"/>
-        <v>256.38382471204289</v>
+        <v>-258.50717355146679</v>
       </c>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B163">
         <f t="shared" ca="1" si="12"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="13"/>
-        <v>28.382422148717083</v>
+        <v>30.931028710973692</v>
       </c>
       <c r="D163">
         <f t="shared" ca="1" si="14"/>
-        <v>8.2106054950716594</v>
+        <v>-13.58134079616544</v>
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="15"/>
-        <v>-15.804757593099922</v>
+        <v>21.531147522714228</v>
       </c>
       <c r="F163">
         <f t="shared" ca="1" si="16"/>
-        <v>265.75808017956882</v>
+        <v>-247.56610153528291</v>
       </c>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.4">
@@ -3943,41 +3943,41 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="13"/>
-        <v>18</v>
+        <v>25.087282468854244</v>
       </c>
       <c r="D164">
         <f t="shared" ca="1" si="14"/>
-        <v>10.274849980742342</v>
+        <v>4.5195760488124197</v>
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="15"/>
-        <v>-7.4977604165792808</v>
+        <v>18.29007836275257</v>
       </c>
       <c r="F164">
         <f t="shared" ca="1" si="16"/>
-        <v>260.56179286281974</v>
+        <v>-257.18376901122525</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B165">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="13"/>
-        <v>27.441556089387454</v>
+        <v>29.87660101634658</v>
       </c>
       <c r="D165">
         <f t="shared" ca="1" si="14"/>
-        <v>-0.7224704264699322</v>
+        <v>-11.301083491282519</v>
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="15"/>
-        <v>-8.1761969247975248</v>
+        <v>12.854852235894173</v>
       </c>
       <c r="F165">
         <f t="shared" ca="1" si="16"/>
-        <v>262.55399929289274</v>
+        <v>-280.29394490964836</v>
       </c>
     </row>
   </sheetData>
